--- a/2.5D_SJR.xlsx
+++ b/2.5D_SJR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programs\ANSYS\Parametric projects\PythonProject\results data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/mrafiee_uottawa_ca/Documents/1-Moh/Teaching &amp; Workshops/Electronic pakcaging and manufacturing/Projects/2025 Projects/teams/2.5D/updated data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D842A09-181F-4DB1-925E-D485D5D5887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4D842A09-181F-4DB1-925E-D485D5D5887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A472B82-0BF6-48E7-A5F9-36232BC722ED}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.5D SJR" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +431,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -592,7 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,6 +608,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,7 +960,7 @@
   <dimension ref="A1:R501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +974,7 @@
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
     <col min="18" max="18" width="16.140625" customWidth="1"/>
   </cols>
@@ -1015,7 +1025,7 @@
       <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1071,8 +1081,8 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3">
-        <v>1.5127509511785398E-3</v>
+      <c r="P2" s="6">
+        <v>1.1598170036450101E-2</v>
       </c>
       <c r="Q2" s="3">
         <v>4.4622258050367306E-2</v>
@@ -1127,8 +1137,8 @@
       <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="3">
-        <v>1.7437933508972501E-3</v>
+      <c r="P3" s="6">
+        <v>2.4082714458927502E-2</v>
       </c>
       <c r="Q3" s="3">
         <v>0.172450618352741</v>
@@ -1183,8 +1193,8 @@
       <c r="O4" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="3">
-        <v>5.8177340888504797E-3</v>
+      <c r="P4" s="6">
+        <v>1.7855043901363301E-2</v>
       </c>
       <c r="Q4" s="3">
         <v>0.1087306085973969</v>
@@ -1239,8 +1249,8 @@
       <c r="O5" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
-        <v>2.6068876322824603E-3</v>
+      <c r="P5" s="6">
+        <v>6.2221158586908097E-3</v>
       </c>
       <c r="Q5" s="3">
         <v>7.8355253441258987E-2</v>
@@ -1295,8 +1305,8 @@
       <c r="O6" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="3">
-        <v>2.7968031299678894E-3</v>
+      <c r="P6" s="6">
+        <v>9.4205660570877998E-3</v>
       </c>
       <c r="Q6" s="3">
         <v>0.14140792307443997</v>
@@ -1351,8 +1361,8 @@
       <c r="O7" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="3">
-        <v>7.6554044221665988E-4</v>
+      <c r="P7" s="6">
+        <v>4.1922157106454791E-3</v>
       </c>
       <c r="Q7" s="3">
         <v>0.16902134241536199</v>
@@ -1407,8 +1417,8 @@
       <c r="O8" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="3">
-        <v>2.0827710241064796E-3</v>
+      <c r="P8" s="6">
+        <v>1.17687232268508E-2</v>
       </c>
       <c r="Q8" s="3">
         <v>0.1274153881240635</v>
@@ -1463,8 +1473,8 @@
       <c r="O9" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
-        <v>1.1481921924314503E-3</v>
+      <c r="P9" s="6">
+        <v>5.6739311949059023E-3</v>
       </c>
       <c r="Q9" s="3">
         <v>7.2841179557143698E-2</v>
@@ -1519,8 +1529,8 @@
       <c r="O10" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="3">
-        <v>4.4150874709885102E-3</v>
+      <c r="P10" s="6">
+        <v>1.5938763099256899E-2</v>
       </c>
       <c r="Q10" s="3">
         <v>8.0481599085032898E-2</v>
@@ -1575,8 +1585,8 @@
       <c r="O11" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="3">
-        <v>1.6673812115186601E-3</v>
+      <c r="P11" s="6">
+        <v>1.23918908066116E-2</v>
       </c>
       <c r="Q11" s="3">
         <v>0.130786744412035</v>
@@ -1631,8 +1641,8 @@
       <c r="O12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
-        <v>1.5220008179994693E-3</v>
+      <c r="P12" s="6">
+        <v>5.818866582558202E-3</v>
       </c>
       <c r="Q12" s="3">
         <v>7.3803787701763296E-2</v>
@@ -1687,8 +1697,8 @@
       <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="3">
-        <v>1.73396604898812E-3</v>
+      <c r="P13" s="6">
+        <v>7.7012332039886004E-3</v>
       </c>
       <c r="Q13" s="3">
         <v>0.13779517984949</v>
@@ -1743,8 +1753,8 @@
       <c r="O14" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>1.5921544618322601E-3</v>
+      <c r="P14" s="6">
+        <v>4.4056713959435018E-3</v>
       </c>
       <c r="Q14" s="3">
         <v>0.12765969405882099</v>
@@ -1799,8 +1809,8 @@
       <c r="O15" t="s">
         <v>1</v>
       </c>
-      <c r="P15" s="3">
-        <v>1.7972229106817394E-3</v>
+      <c r="P15" s="6">
+        <v>5.375273220124599E-3</v>
       </c>
       <c r="Q15" s="3">
         <v>9.7889446187763504E-2</v>
@@ -1855,8 +1865,8 @@
       <c r="O16" t="s">
         <v>0</v>
       </c>
-      <c r="P16" s="3">
-        <v>4.9753628209145201E-3</v>
+      <c r="P16" s="6">
+        <v>2.2977319546043797E-2</v>
       </c>
       <c r="Q16" s="3">
         <v>0.21742240572348201</v>
@@ -1911,8 +1921,8 @@
       <c r="O17" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="3">
-        <v>2.0674411389336499E-3</v>
+      <c r="P17" s="6">
+        <v>1.3905923115089598E-2</v>
       </c>
       <c r="Q17" s="3">
         <v>0.18330889660865002</v>
@@ -1967,8 +1977,8 @@
       <c r="O18" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>3.9287061081267997E-3</v>
+      <c r="P18" s="6">
+        <v>6.1099011218175014E-3</v>
       </c>
       <c r="Q18" s="3">
         <v>0.114073599688709</v>
@@ -2023,8 +2033,8 @@
       <c r="O19" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="3">
-        <v>1.6703520377632196E-3</v>
+      <c r="P19" s="6">
+        <v>3.1225821294355808E-3</v>
       </c>
       <c r="Q19" s="3">
         <v>0.13987847603857503</v>
@@ -2079,8 +2089,8 @@
       <c r="O20" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="3">
-        <v>2.3815216554794495E-3</v>
+      <c r="P20" s="6">
+        <v>6.8250656840973291E-3</v>
       </c>
       <c r="Q20" s="3">
         <v>5.5872793658635803E-2</v>
@@ -2135,8 +2145,8 @@
       <c r="O21" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
-        <v>8.3048932651763998E-4</v>
+      <c r="P21" s="6">
+        <v>5.9480915515451021E-3</v>
       </c>
       <c r="Q21" s="3">
         <v>0.14934617327526198</v>
@@ -2191,8 +2201,8 @@
       <c r="O22" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
-        <v>2.1714298613915196E-3</v>
+      <c r="P22" s="6">
+        <v>1.3562199805164701E-2</v>
       </c>
       <c r="Q22" s="3">
         <v>0.17481616744771603</v>
@@ -2247,8 +2257,8 @@
       <c r="O23" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="3">
-        <v>1.3128830523783195E-3</v>
+      <c r="P23" s="6">
+        <v>6.1907122726551998E-3</v>
       </c>
       <c r="Q23" s="3">
         <v>0.10191528836730901</v>
@@ -2303,8 +2313,8 @@
       <c r="O24" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="3">
-        <v>3.3695583897497298E-3</v>
+      <c r="P24" s="6">
+        <v>1.1798398307291801E-2</v>
       </c>
       <c r="Q24" s="3">
         <v>0.21415160968899799</v>
@@ -2359,8 +2369,8 @@
       <c r="O25" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="3">
-        <v>1.2824324985558598E-3</v>
+      <c r="P25" s="6">
+        <v>1.9968741889897492E-3</v>
       </c>
       <c r="Q25" s="3">
         <v>9.7357622813434005E-2</v>
@@ -2415,8 +2425,8 @@
       <c r="O26" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="3">
-        <v>8.9187896810471994E-3</v>
+      <c r="P26" s="6">
+        <v>1.370316487737E-2</v>
       </c>
       <c r="Q26" s="3">
         <v>0.31901104841381306</v>
@@ -2471,8 +2481,8 @@
       <c r="O27" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="3">
-        <v>1.1037472286261596E-3</v>
+      <c r="P27" s="6">
+        <v>2.2677867527818299E-3</v>
       </c>
       <c r="Q27" s="3">
         <v>6.8118073395452505E-2</v>
@@ -2527,8 +2537,8 @@
       <c r="O28" t="s">
         <v>1</v>
       </c>
-      <c r="P28" s="3">
-        <v>7.4552471772903984E-4</v>
+      <c r="P28" s="6">
+        <v>4.0389743517152289E-3</v>
       </c>
       <c r="Q28" s="3">
         <v>0.12636131118051619</v>
@@ -2583,7 +2593,7 @@
       <c r="O29" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="6">
         <v>7.7403344039340006E-3</v>
       </c>
       <c r="Q29" s="3">
@@ -2639,8 +2649,8 @@
       <c r="O30" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="3">
-        <v>8.9641336091972985E-4</v>
+      <c r="P30" s="6">
+        <v>2.3525566211901605E-3</v>
       </c>
       <c r="Q30" s="3">
         <v>0.16544967703521202</v>
@@ -2695,8 +2705,8 @@
       <c r="O31" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="3">
-        <v>1.0061997600132599E-3</v>
+      <c r="P31" s="6">
+        <v>5.3878107464698007E-3</v>
       </c>
       <c r="Q31" s="3">
         <v>0.17052357038482999</v>
@@ -2751,8 +2761,8 @@
       <c r="O32" t="s">
         <v>1</v>
       </c>
-      <c r="P32" s="3">
-        <v>1.5630580965080298E-3</v>
+      <c r="P32" s="6">
+        <v>6.0305736915324606E-3</v>
       </c>
       <c r="Q32" s="3">
         <v>0.117329069878906</v>
@@ -2807,8 +2817,8 @@
       <c r="O33" t="s">
         <v>1</v>
       </c>
-      <c r="P33" s="3">
-        <v>1.6100908833323099E-3</v>
+      <c r="P33" s="6">
+        <v>6.7411613636067999E-3</v>
       </c>
       <c r="Q33" s="3">
         <v>0.10472734412178329</v>
@@ -2863,8 +2873,8 @@
       <c r="O34" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="3">
-        <v>1.0908269325682401E-3</v>
+      <c r="P34" s="6">
+        <v>1.2066133378539198E-2</v>
       </c>
       <c r="Q34" s="3">
         <v>6.2854405143297903E-2</v>
@@ -2919,8 +2929,8 @@
       <c r="O35" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="3">
-        <v>6.0475782447611025E-4</v>
+      <c r="P35" s="6">
+        <v>7.6229319965933004E-3</v>
       </c>
       <c r="Q35" s="3">
         <v>0.18418346298858501</v>
@@ -2975,8 +2985,8 @@
       <c r="O36" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="3">
-        <v>4.4367627124301291E-3</v>
+      <c r="P36" s="6">
+        <v>6.7567240330389695E-3</v>
       </c>
       <c r="Q36" s="3">
         <v>7.1246143663301911E-2</v>
@@ -3031,8 +3041,8 @@
       <c r="O37" t="s">
         <v>3</v>
       </c>
-      <c r="P37" s="3">
-        <v>1.3004650896846206E-3</v>
+      <c r="P37" s="6">
+        <v>6.0739159816876002E-3</v>
       </c>
       <c r="Q37" s="3">
         <v>0.10021846345625801</v>
@@ -3087,8 +3097,8 @@
       <c r="O38" t="s">
         <v>0</v>
       </c>
-      <c r="P38" s="3">
-        <v>2.3118290173442801E-3</v>
+      <c r="P38" s="6">
+        <v>1.72433034749702E-2</v>
       </c>
       <c r="Q38" s="3">
         <v>0.14690291741862899</v>
@@ -3143,8 +3153,8 @@
       <c r="O39" t="s">
         <v>0</v>
       </c>
-      <c r="P39" s="3">
-        <v>7.0981017051962303E-3</v>
+      <c r="P39" s="6">
+        <v>2.5381669867783795E-2</v>
       </c>
       <c r="Q39" s="3">
         <v>9.4667280209250415E-2</v>
@@ -3199,8 +3209,8 @@
       <c r="O40" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="3">
-        <v>1.6801992360910801E-3</v>
+      <c r="P40" s="6">
+        <v>5.6511819129809997E-3</v>
       </c>
       <c r="Q40" s="3">
         <v>0.21992170996964</v>
@@ -3255,8 +3265,8 @@
       <c r="O41" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>8.3107067621313018E-3</v>
+      <c r="P41" s="6">
+        <v>1.3931295834481701E-2</v>
       </c>
       <c r="Q41" s="3">
         <v>0.12536521255970001</v>
@@ -3311,8 +3321,8 @@
       <c r="O42" t="s">
         <v>1</v>
       </c>
-      <c r="P42" s="3">
-        <v>9.7803101004956001E-4</v>
+      <c r="P42" s="6">
+        <v>6.8102196382825008E-3</v>
       </c>
       <c r="Q42" s="3">
         <v>7.2004842339082997E-2</v>
@@ -3367,8 +3377,8 @@
       <c r="O43" t="s">
         <v>1</v>
       </c>
-      <c r="P43" s="3">
-        <v>9.125354567913798E-4</v>
+      <c r="P43" s="6">
+        <v>7.402047602227001E-3</v>
       </c>
       <c r="Q43" s="3">
         <v>0.11931209941394599</v>
@@ -3423,8 +3433,8 @@
       <c r="O44" t="s">
         <v>1</v>
       </c>
-      <c r="P44" s="3">
-        <v>1.1037087087970498E-3</v>
+      <c r="P44" s="6">
+        <v>7.1653429185971011E-3</v>
       </c>
       <c r="Q44" s="3">
         <v>0.10775470361113509</v>
@@ -3479,8 +3489,8 @@
       <c r="O45" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="3">
-        <v>1.0071391614019402E-3</v>
+      <c r="P45" s="6">
+        <v>9.7999204590451007E-3</v>
       </c>
       <c r="Q45" s="3">
         <v>0.14836969505995501</v>
@@ -3535,8 +3545,8 @@
       <c r="O46" t="s">
         <v>2</v>
       </c>
-      <c r="P46" s="3">
-        <v>8.4796311239188028E-4</v>
+      <c r="P46" s="6">
+        <v>8.0591205478412996E-3</v>
       </c>
       <c r="Q46" s="3">
         <v>0.15951579576358199</v>
@@ -3591,8 +3601,8 @@
       <c r="O47" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>1.6848762606969095E-3</v>
+      <c r="P47" s="6">
+        <v>3.1906110416457297E-3</v>
       </c>
       <c r="Q47" s="3">
         <v>9.9789113039150598E-2</v>
@@ -3647,8 +3657,8 @@
       <c r="O48" t="s">
         <v>2</v>
       </c>
-      <c r="P48" s="3">
-        <v>1.9603858963819299E-3</v>
+      <c r="P48" s="6">
+        <v>9.1265964729245978E-3</v>
       </c>
       <c r="Q48" s="3">
         <v>0.15980556560680304</v>
@@ -3703,8 +3713,8 @@
       <c r="O49" t="s">
         <v>2</v>
       </c>
-      <c r="P49" s="3">
-        <v>4.4018182088620492E-3</v>
+      <c r="P49" s="6">
+        <v>7.4398251308593986E-3</v>
       </c>
       <c r="Q49" s="3">
         <v>0.16222852352075198</v>
@@ -3759,8 +3769,8 @@
       <c r="O50" t="s">
         <v>3</v>
       </c>
-      <c r="P50" s="3">
-        <v>2.8703972930087997E-3</v>
+      <c r="P50" s="6">
+        <v>3.7240218953228602E-3</v>
       </c>
       <c r="Q50" s="3">
         <v>0.13479027221910619</v>
@@ -3815,8 +3825,8 @@
       <c r="O51" t="s">
         <v>0</v>
       </c>
-      <c r="P51" s="3">
-        <v>1.0793549125082801E-2</v>
+      <c r="P51" s="6">
+        <v>1.6900748829357298E-2</v>
       </c>
       <c r="Q51" s="3">
         <v>0.148551209364086</v>
@@ -3871,8 +3881,8 @@
       <c r="O52" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>1.8731167656369507E-3</v>
+      <c r="P52" s="6">
+        <v>2.7706072869477698E-3</v>
       </c>
       <c r="Q52" s="3">
         <v>0.22121187765151301</v>
@@ -3927,8 +3937,8 @@
       <c r="O53" t="s">
         <v>0</v>
       </c>
-      <c r="P53" s="3">
-        <v>3.2711701514926902E-3</v>
+      <c r="P53" s="6">
+        <v>1.4345880190376201E-2</v>
       </c>
       <c r="Q53" s="3">
         <v>0.13819699920713899</v>
@@ -3983,8 +3993,8 @@
       <c r="O54" t="s">
         <v>1</v>
       </c>
-      <c r="P54" s="3">
-        <v>9.4510417699210977E-4</v>
+      <c r="P54" s="6">
+        <v>6.0796565376222012E-3</v>
       </c>
       <c r="Q54" s="3">
         <v>0.12591915996745301</v>
@@ -4039,8 +4049,8 @@
       <c r="O55" t="s">
         <v>1</v>
       </c>
-      <c r="P55" s="3">
-        <v>7.8864900933695026E-4</v>
+      <c r="P55" s="6">
+        <v>5.1034172938670998E-3</v>
       </c>
       <c r="Q55" s="3">
         <v>0.19706534966826497</v>
@@ -4095,8 +4105,8 @@
       <c r="O56" t="s">
         <v>2</v>
       </c>
-      <c r="P56" s="3">
-        <v>1.2039228982757701E-2</v>
+      <c r="P56" s="6">
+        <v>1.6710987430997203E-2</v>
       </c>
       <c r="Q56" s="3">
         <v>6.2832637690007298E-2</v>
@@ -4151,8 +4161,8 @@
       <c r="O57" t="s">
         <v>0</v>
       </c>
-      <c r="P57" s="3">
-        <v>6.7139846505596696E-3</v>
+      <c r="P57" s="6">
+        <v>1.3715206296183099E-2</v>
       </c>
       <c r="Q57" s="3">
         <v>0.12561127799563099</v>
@@ -4207,8 +4217,8 @@
       <c r="O58" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>1.5089095322764496E-3</v>
+      <c r="P58" s="6">
+        <v>2.5080160994548411E-3</v>
       </c>
       <c r="Q58" s="3">
         <v>0.19514870177954402</v>
@@ -4263,8 +4273,8 @@
       <c r="O59" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="3">
-        <v>2.0489239996095499E-3</v>
+      <c r="P59" s="6">
+        <v>9.8994543659501003E-3</v>
       </c>
       <c r="Q59" s="3">
         <v>0.163131080102175</v>
@@ -4319,8 +4329,8 @@
       <c r="O60" t="s">
         <v>0</v>
       </c>
-      <c r="P60" s="3">
-        <v>2.4894350463000601E-3</v>
+      <c r="P60" s="6">
+        <v>1.1704123986419301E-2</v>
       </c>
       <c r="Q60" s="3">
         <v>0.18568169930949799</v>
@@ -4375,8 +4385,8 @@
       <c r="O61" t="s">
         <v>2</v>
       </c>
-      <c r="P61" s="3">
-        <v>3.6413711741261094E-3</v>
+      <c r="P61" s="6">
+        <v>1.6001161508029299E-2</v>
       </c>
       <c r="Q61" s="3">
         <v>0.16070219734683602</v>
@@ -4431,8 +4441,8 @@
       <c r="O62" t="s">
         <v>2</v>
       </c>
-      <c r="P62" s="3">
-        <v>2.31425598303759E-3</v>
+      <c r="P62" s="6">
+        <v>1.3973923807498102E-2</v>
       </c>
       <c r="Q62" s="3">
         <v>6.6056667827068913E-2</v>
@@ -4487,8 +4497,8 @@
       <c r="O63" t="s">
         <v>1</v>
       </c>
-      <c r="P63" s="3">
-        <v>1.1940290432903601E-3</v>
+      <c r="P63" s="6">
+        <v>9.374400600791E-3</v>
       </c>
       <c r="Q63" s="3">
         <v>0.122246653772891</v>
@@ -4543,8 +4553,8 @@
       <c r="O64" t="s">
         <v>2</v>
       </c>
-      <c r="P64" s="3">
-        <v>3.2363146128773302E-3</v>
+      <c r="P64" s="6">
+        <v>1.9953976909164298E-2</v>
       </c>
       <c r="Q64" s="3">
         <v>0.12825373187661179</v>
@@ -4599,8 +4609,8 @@
       <c r="O65" t="s">
         <v>0</v>
       </c>
-      <c r="P65" s="3">
-        <v>2.8411691018845903E-3</v>
+      <c r="P65" s="6">
+        <v>1.96516490832436E-2</v>
       </c>
       <c r="Q65" s="3">
         <v>0.11069308570586109</v>
@@ -4655,8 +4665,8 @@
       <c r="O66" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
-        <v>1.2994744066645598E-3</v>
+      <c r="P66" s="6">
+        <v>6.2890134577174E-3</v>
       </c>
       <c r="Q66" s="3">
         <v>9.0962387854233107E-2</v>
@@ -4711,8 +4721,8 @@
       <c r="O67" t="s">
         <v>3</v>
       </c>
-      <c r="P67" s="3">
-        <v>9.1564669111220999E-4</v>
+      <c r="P67" s="6">
+        <v>3.6315551315055702E-3</v>
       </c>
       <c r="Q67" s="3">
         <v>0.1048742379061877</v>
@@ -4767,8 +4777,8 @@
       <c r="O68" t="s">
         <v>0</v>
       </c>
-      <c r="P68" s="3">
-        <v>2.2106163451098798E-3</v>
+      <c r="P68" s="6">
+        <v>2.25762970512733E-2</v>
       </c>
       <c r="Q68" s="3">
         <v>0.13666894845664451</v>
@@ -4823,8 +4833,8 @@
       <c r="O69" t="s">
         <v>3</v>
       </c>
-      <c r="P69" s="3">
-        <v>7.4793914404836003E-4</v>
+      <c r="P69" s="6">
+        <v>6.6192517988384013E-3</v>
       </c>
       <c r="Q69" s="3">
         <v>4.9164204450789402E-2</v>
@@ -4879,8 +4889,8 @@
       <c r="O70" t="s">
         <v>3</v>
       </c>
-      <c r="P70" s="3">
-        <v>3.7859748117625505E-3</v>
+      <c r="P70" s="6">
+        <v>6.0023068799637015E-3</v>
       </c>
       <c r="Q70" s="3">
         <v>5.3841213812120203E-2</v>
@@ -4935,8 +4945,8 @@
       <c r="O71" t="s">
         <v>2</v>
       </c>
-      <c r="P71" s="3">
-        <v>4.6856427798047592E-3</v>
+      <c r="P71" s="6">
+        <v>7.0599695900454996E-3</v>
       </c>
       <c r="Q71" s="3">
         <v>0.16986031830310802</v>
@@ -4991,8 +5001,8 @@
       <c r="O72" t="s">
         <v>1</v>
       </c>
-      <c r="P72" s="3">
-        <v>4.2507912730797588E-3</v>
+      <c r="P72" s="6">
+        <v>8.1631339853630008E-3</v>
       </c>
       <c r="Q72" s="3">
         <v>2.3856256855651702E-2</v>
@@ -5047,8 +5057,8 @@
       <c r="O73" t="s">
         <v>1</v>
       </c>
-      <c r="P73" s="3">
-        <v>1.4984675217419897E-3</v>
+      <c r="P73" s="6">
+        <v>3.6815714702242396E-3</v>
       </c>
       <c r="Q73" s="3">
         <v>7.7440915396436716E-2</v>
@@ -5103,8 +5113,8 @@
       <c r="O74" t="s">
         <v>1</v>
       </c>
-      <c r="P74" s="3">
-        <v>7.3126615166074988E-4</v>
+      <c r="P74" s="6">
+        <v>7.0278758066705995E-3</v>
       </c>
       <c r="Q74" s="3">
         <v>0.114773203618824</v>
@@ -5159,8 +5169,8 @@
       <c r="O75" t="s">
         <v>3</v>
       </c>
-      <c r="P75" s="3">
-        <v>1.6765067703090599E-3</v>
+      <c r="P75" s="6">
+        <v>6.3947780290618018E-3</v>
       </c>
       <c r="Q75" s="3">
         <v>6.5896915737539113E-2</v>
@@ -5215,8 +5225,8 @@
       <c r="O76" t="s">
         <v>1</v>
       </c>
-      <c r="P76" s="3">
-        <v>9.2754167360454024E-4</v>
+      <c r="P76" s="6">
+        <v>6.857787462649801E-3</v>
       </c>
       <c r="Q76" s="3">
         <v>7.0150762912817202E-2</v>
@@ -5271,8 +5281,8 @@
       <c r="O77" t="s">
         <v>3</v>
       </c>
-      <c r="P77" s="3">
-        <v>8.9823313629722006E-4</v>
+      <c r="P77" s="6">
+        <v>3.6500007263384308E-3</v>
       </c>
       <c r="Q77" s="3">
         <v>0.11243521352298599</v>
@@ -5327,8 +5337,8 @@
       <c r="O78" t="s">
         <v>1</v>
       </c>
-      <c r="P78" s="3">
-        <v>8.3098805271220001E-4</v>
+      <c r="P78" s="6">
+        <v>5.630073705105999E-3</v>
       </c>
       <c r="Q78" s="3">
         <v>0.15232376055792002</v>
@@ -5383,8 +5393,8 @@
       <c r="O79" t="s">
         <v>1</v>
       </c>
-      <c r="P79" s="3">
-        <v>8.7437564479842054E-4</v>
+      <c r="P79" s="6">
+        <v>1.04036188131432E-2</v>
       </c>
       <c r="Q79" s="3">
         <v>0.121170369675383</v>
@@ -5439,8 +5449,8 @@
       <c r="O80" t="s">
         <v>1</v>
       </c>
-      <c r="P80" s="3">
-        <v>1.7489303991169401E-3</v>
+      <c r="P80" s="6">
+        <v>7.1219907840712991E-3</v>
       </c>
       <c r="Q80" s="3">
         <v>0.11651402548886769</v>
@@ -5495,8 +5505,8 @@
       <c r="O81" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3">
-        <v>7.6565236565784983E-4</v>
+      <c r="P81" s="6">
+        <v>5.0500558281782997E-3</v>
       </c>
       <c r="Q81" s="3">
         <v>0.18841403722763003</v>
@@ -5551,8 +5561,8 @@
       <c r="O82" t="s">
         <v>0</v>
       </c>
-      <c r="P82" s="3">
-        <v>5.3432735985551993E-3</v>
+      <c r="P82" s="6">
+        <v>1.7544336646096798E-2</v>
       </c>
       <c r="Q82" s="3">
         <v>7.6496953377499788E-2</v>
@@ -5607,8 +5617,8 @@
       <c r="O83" t="s">
         <v>1</v>
       </c>
-      <c r="P83" s="3">
-        <v>1.9968122360296495E-3</v>
+      <c r="P83" s="6">
+        <v>4.1344117471452894E-3</v>
       </c>
       <c r="Q83" s="3">
         <v>9.1789845144375812E-2</v>
@@ -5663,8 +5673,8 @@
       <c r="O84" t="s">
         <v>0</v>
       </c>
-      <c r="P84" s="3">
-        <v>4.53576874861029E-3</v>
+      <c r="P84" s="6">
+        <v>1.40580534934997E-2</v>
       </c>
       <c r="Q84" s="3">
         <v>0.21019927971064997</v>
@@ -5719,8 +5729,8 @@
       <c r="O85" t="s">
         <v>1</v>
       </c>
-      <c r="P85" s="3">
-        <v>3.3032660139724994E-3</v>
+      <c r="P85" s="6">
+        <v>7.294370152521901E-3</v>
       </c>
       <c r="Q85" s="3">
         <v>0.141906305449084</v>
@@ -5775,8 +5785,8 @@
       <c r="O86" t="s">
         <v>0</v>
       </c>
-      <c r="P86" s="3">
-        <v>8.4031847072765994E-3</v>
+      <c r="P86" s="6">
+        <v>1.3288392103277201E-2</v>
       </c>
       <c r="Q86" s="3">
         <v>0.22942810412496298</v>
@@ -5831,8 +5841,8 @@
       <c r="O87" t="s">
         <v>3</v>
       </c>
-      <c r="P87" s="3">
-        <v>2.194459841120989E-3</v>
+      <c r="P87" s="6">
+        <v>2.0164123307040401E-3</v>
       </c>
       <c r="Q87" s="3">
         <v>5.3907421766779706E-2</v>
@@ -5887,8 +5897,8 @@
       <c r="O88" t="s">
         <v>0</v>
       </c>
-      <c r="P88" s="3">
-        <v>1.12766893580556E-2</v>
+      <c r="P88" s="6">
+        <v>1.7325175052974397E-2</v>
       </c>
       <c r="Q88" s="3">
         <v>9.9389049224555312E-2</v>
@@ -5943,8 +5953,8 @@
       <c r="O89" t="s">
         <v>2</v>
       </c>
-      <c r="P89" s="3">
-        <v>1.0203483273585404E-3</v>
+      <c r="P89" s="6">
+        <v>1.0091244301292998E-2</v>
       </c>
       <c r="Q89" s="3">
         <v>0.13353558699600401</v>
@@ -5999,8 +6009,8 @@
       <c r="O90" t="s">
         <v>2</v>
       </c>
-      <c r="P90" s="3">
-        <v>1.4870666709612098E-3</v>
+      <c r="P90" s="6">
+        <v>1.1354861839208702E-2</v>
       </c>
       <c r="Q90" s="3">
         <v>0.26209201384335801</v>
@@ -6055,8 +6065,8 @@
       <c r="O91" t="s">
         <v>2</v>
       </c>
-      <c r="P91" s="3">
-        <v>8.659667173560601E-4</v>
+      <c r="P91" s="6">
+        <v>5.4681231849826092E-3</v>
       </c>
       <c r="Q91" s="3">
         <v>0.16903258138336202</v>
@@ -6111,8 +6121,8 @@
       <c r="O92" t="s">
         <v>0</v>
       </c>
-      <c r="P92" s="3">
-        <v>3.8185595003596999E-3</v>
+      <c r="P92" s="6">
+        <v>1.85073943794123E-2</v>
       </c>
       <c r="Q92" s="3">
         <v>0.1048822158481918</v>
@@ -6167,8 +6177,8 @@
       <c r="O93" t="s">
         <v>3</v>
       </c>
-      <c r="P93" s="3">
-        <v>1.0863893983241698E-3</v>
+      <c r="P93" s="6">
+        <v>7.4970441783078993E-3</v>
       </c>
       <c r="Q93" s="3">
         <v>0.18093487154692398</v>
@@ -6223,8 +6233,8 @@
       <c r="O94" t="s">
         <v>0</v>
       </c>
-      <c r="P94" s="3">
-        <v>6.7804873397107994E-3</v>
+      <c r="P94" s="6">
+        <v>1.35239013616229E-2</v>
       </c>
       <c r="Q94" s="3">
         <v>0.1205116594210259</v>
@@ -6279,8 +6289,8 @@
       <c r="O95" t="s">
         <v>2</v>
       </c>
-      <c r="P95" s="3">
-        <v>7.4661908865892006E-4</v>
+      <c r="P95" s="6">
+        <v>1.3155541964806599E-2</v>
       </c>
       <c r="Q95" s="3">
         <v>0.21555775124579699</v>
@@ -6335,8 +6345,8 @@
       <c r="O96" t="s">
         <v>3</v>
       </c>
-      <c r="P96" s="3">
-        <v>6.8012192173228002E-4</v>
+      <c r="P96" s="6">
+        <v>6.7851595231330983E-3</v>
       </c>
       <c r="Q96" s="3">
         <v>0.13930153427645597</v>
@@ -6391,8 +6401,8 @@
       <c r="O97" t="s">
         <v>0</v>
       </c>
-      <c r="P97" s="3">
-        <v>2.2169456551637203E-3</v>
+      <c r="P97" s="6">
+        <v>1.8523407983593698E-2</v>
       </c>
       <c r="Q97" s="3">
         <v>0.18595061870291799</v>
@@ -6447,8 +6457,8 @@
       <c r="O98" t="s">
         <v>3</v>
       </c>
-      <c r="P98" s="3">
-        <v>1.8019193030340804E-3</v>
+      <c r="P98" s="6">
+        <v>4.06927321455435E-3</v>
       </c>
       <c r="Q98" s="3">
         <v>0.1134716435335572</v>
@@ -6503,8 +6513,8 @@
       <c r="O99" t="s">
         <v>1</v>
       </c>
-      <c r="P99" s="3">
-        <v>1.4993616932770298E-3</v>
+      <c r="P99" s="6">
+        <v>5.4077743188826501E-3</v>
       </c>
       <c r="Q99" s="3">
         <v>0.1258141128346324</v>
@@ -6559,8 +6569,8 @@
       <c r="O100" t="s">
         <v>1</v>
       </c>
-      <c r="P100" s="3">
-        <v>1.1279558757450996E-3</v>
+      <c r="P100" s="6">
+        <v>5.8525510248727992E-3</v>
       </c>
       <c r="Q100" s="3">
         <v>0.17559267487376903</v>
@@ -6615,8 +6625,8 @@
       <c r="O101" t="s">
         <v>2</v>
       </c>
-      <c r="P101" s="3">
-        <v>2.3317833838518804E-3</v>
+      <c r="P101" s="6">
+        <v>8.0502836644882007E-3</v>
       </c>
       <c r="Q101" s="3">
         <v>0.15288724610582</v>
@@ -6671,8 +6681,8 @@
       <c r="O102" t="s">
         <v>0</v>
       </c>
-      <c r="P102" s="3">
-        <v>6.6521978515083199E-3</v>
+      <c r="P102" s="6">
+        <v>1.6301184747135301E-2</v>
       </c>
       <c r="Q102" s="3">
         <v>0.11472083325497801</v>
@@ -6727,8 +6737,8 @@
       <c r="O103" t="s">
         <v>2</v>
       </c>
-      <c r="P103" s="3">
-        <v>7.167092505824201E-4</v>
+      <c r="P103" s="6">
+        <v>8.1152921484317995E-3</v>
       </c>
       <c r="Q103" s="3">
         <v>0.115454153623432</v>
@@ -6783,8 +6793,8 @@
       <c r="O104" t="s">
         <v>3</v>
       </c>
-      <c r="P104" s="3">
-        <v>7.7932838757988022E-4</v>
+      <c r="P104" s="6">
+        <v>5.632325875922101E-3</v>
       </c>
       <c r="Q104" s="3">
         <v>0.10661780601367291</v>
@@ -6839,8 +6849,8 @@
       <c r="O105" t="s">
         <v>0</v>
       </c>
-      <c r="P105" s="3">
-        <v>5.166536924662E-3</v>
+      <c r="P105" s="6">
+        <v>1.15266803040868E-2</v>
       </c>
       <c r="Q105" s="3">
         <v>6.7519806558266282E-2</v>
@@ -6895,8 +6905,8 @@
       <c r="O106" t="s">
         <v>2</v>
       </c>
-      <c r="P106" s="3">
-        <v>1.5726183046353998E-3</v>
+      <c r="P106" s="6">
+        <v>8.7967387225945017E-3</v>
       </c>
       <c r="Q106" s="3">
         <v>0.14141238946467599</v>
@@ -6951,8 +6961,8 @@
       <c r="O107" t="s">
         <v>3</v>
       </c>
-      <c r="P107" s="3">
-        <v>1.2865880498793606E-3</v>
+      <c r="P107" s="6">
+        <v>7.3279410426039995E-3</v>
       </c>
       <c r="Q107" s="3">
         <v>0.13462024170439701</v>
@@ -7007,8 +7017,8 @@
       <c r="O108" t="s">
         <v>3</v>
       </c>
-      <c r="P108" s="3">
-        <v>1.2048606431562803E-3</v>
+      <c r="P108" s="6">
+        <v>6.3002181123011022E-3</v>
       </c>
       <c r="Q108" s="3">
         <v>8.1450187484733497E-2</v>
@@ -7063,8 +7073,8 @@
       <c r="O109" t="s">
         <v>2</v>
       </c>
-      <c r="P109" s="3">
-        <v>1.0454205976202502E-3</v>
+      <c r="P109" s="6">
+        <v>9.5774620713200004E-3</v>
       </c>
       <c r="Q109" s="3">
         <v>0.10729824914596971</v>
@@ -7119,8 +7129,8 @@
       <c r="O110" t="s">
         <v>3</v>
       </c>
-      <c r="P110" s="3">
-        <v>9.9997056406665036E-4</v>
+      <c r="P110" s="6">
+        <v>3.3074521779781008E-3</v>
       </c>
       <c r="Q110" s="3">
         <v>0.13075538864359301</v>
@@ -7175,8 +7185,8 @@
       <c r="O111" t="s">
         <v>0</v>
       </c>
-      <c r="P111" s="3">
-        <v>8.19359594606788E-3</v>
+      <c r="P111" s="6">
+        <v>1.6062970447819597E-2</v>
       </c>
       <c r="Q111" s="3">
         <v>0.1370013477280734</v>
@@ -7231,8 +7241,8 @@
       <c r="O112" t="s">
         <v>2</v>
       </c>
-      <c r="P112" s="3">
-        <v>4.9387934559489699E-3</v>
+      <c r="P112" s="6">
+        <v>1.17508210823871E-2</v>
       </c>
       <c r="Q112" s="3">
         <v>0.13182668294757599</v>
@@ -7287,8 +7297,8 @@
       <c r="O113" t="s">
         <v>2</v>
       </c>
-      <c r="P113" s="3">
-        <v>9.2539670586120008E-3</v>
+      <c r="P113" s="6">
+        <v>9.6781208412721996E-3</v>
       </c>
       <c r="Q113" s="3">
         <v>0.16284012654796298</v>
@@ -7343,7 +7353,7 @@
       <c r="O114" t="s">
         <v>2</v>
       </c>
-      <c r="P114" s="3">
+      <c r="P114" s="6">
         <v>7.4951976130250998E-3</v>
       </c>
       <c r="Q114" s="3">
@@ -7399,8 +7409,8 @@
       <c r="O115" t="s">
         <v>2</v>
       </c>
-      <c r="P115" s="3">
-        <v>1.0917543650066394E-3</v>
+      <c r="P115" s="6">
+        <v>1.0065411741379699E-2</v>
       </c>
       <c r="Q115" s="3">
         <v>0.160971893463284</v>
@@ -7455,8 +7465,8 @@
       <c r="O116" t="s">
         <v>2</v>
       </c>
-      <c r="P116" s="3">
-        <v>2.0155897946096896E-3</v>
+      <c r="P116" s="6">
+        <v>9.8813727090600999E-3</v>
       </c>
       <c r="Q116" s="3">
         <v>9.165857639163659E-2</v>
@@ -7511,8 +7521,8 @@
       <c r="O117" t="s">
         <v>3</v>
       </c>
-      <c r="P117" s="3">
-        <v>1.4661569148302E-3</v>
+      <c r="P117" s="6">
+        <v>6.194255809532501E-3</v>
       </c>
       <c r="Q117" s="3">
         <v>7.1149472845718001E-2</v>
@@ -7567,8 +7577,8 @@
       <c r="O118" t="s">
         <v>1</v>
       </c>
-      <c r="P118" s="3">
-        <v>1.4712387292092899E-3</v>
+      <c r="P118" s="6">
+        <v>1.4715215365867999E-2</v>
       </c>
       <c r="Q118" s="3">
         <v>0.18576480913907298</v>
@@ -7623,8 +7633,8 @@
       <c r="O119" t="s">
         <v>1</v>
       </c>
-      <c r="P119" s="3">
-        <v>9.9524755410130032E-4</v>
+      <c r="P119" s="6">
+        <v>1.2523382552899399E-2</v>
       </c>
       <c r="Q119" s="3">
         <v>0.192987804301083</v>
@@ -7679,8 +7689,8 @@
       <c r="O120" t="s">
         <v>2</v>
       </c>
-      <c r="P120" s="3">
-        <v>2.46060848076013E-3</v>
+      <c r="P120" s="6">
+        <v>1.6028397367335901E-2</v>
       </c>
       <c r="Q120" s="3">
         <v>0.149776454083622</v>
@@ -7735,8 +7745,8 @@
       <c r="O121" t="s">
         <v>2</v>
       </c>
-      <c r="P121" s="3">
-        <v>3.90318017161912E-3</v>
+      <c r="P121" s="6">
+        <v>2.4407893710304003E-2</v>
       </c>
       <c r="Q121" s="3">
         <v>0.17397607117891301</v>
@@ -7791,8 +7801,8 @@
       <c r="O122" t="s">
         <v>0</v>
       </c>
-      <c r="P122" s="3">
-        <v>5.7185626183126901E-3</v>
+      <c r="P122" s="6">
+        <v>2.3103742161765702E-2</v>
       </c>
       <c r="Q122" s="3">
         <v>0.123519220389426</v>
@@ -7847,8 +7857,8 @@
       <c r="O123" t="s">
         <v>1</v>
       </c>
-      <c r="P123" s="3">
-        <v>8.5891200865262016E-4</v>
+      <c r="P123" s="6">
+        <v>7.268153509357899E-3</v>
       </c>
       <c r="Q123" s="3">
         <v>0.10291296662762729</v>
@@ -7903,8 +7913,8 @@
       <c r="O124" t="s">
         <v>3</v>
       </c>
-      <c r="P124" s="3">
-        <v>2.0753574553964401E-3</v>
+      <c r="P124" s="6">
+        <v>4.0831966325640297E-3</v>
       </c>
       <c r="Q124" s="3">
         <v>0.11545450938865529</v>
@@ -7959,8 +7969,8 @@
       <c r="O125" t="s">
         <v>1</v>
       </c>
-      <c r="P125" s="3">
-        <v>1.7624359306864798E-3</v>
+      <c r="P125" s="6">
+        <v>5.9485703241080011E-3</v>
       </c>
       <c r="Q125" s="3">
         <v>7.9832002986222214E-2</v>
@@ -8015,8 +8025,8 @@
       <c r="O126" t="s">
         <v>3</v>
       </c>
-      <c r="P126" s="3">
-        <v>1.3746819163316095E-3</v>
+      <c r="P126" s="6">
+        <v>5.2297456422820011E-3</v>
       </c>
       <c r="Q126" s="3">
         <v>0.141325018834323</v>
@@ -8071,8 +8081,8 @@
       <c r="O127" t="s">
         <v>1</v>
       </c>
-      <c r="P127" s="3">
-        <v>1.5267276749000294E-3</v>
+      <c r="P127" s="6">
+        <v>7.2320453473365999E-3</v>
       </c>
       <c r="Q127" s="3">
         <v>0.14095563255250498</v>
@@ -8127,8 +8137,8 @@
       <c r="O128" t="s">
         <v>3</v>
       </c>
-      <c r="P128" s="3">
-        <v>9.5469096294209001E-4</v>
+      <c r="P128" s="6">
+        <v>4.6863716270309011E-3</v>
       </c>
       <c r="Q128" s="3">
         <v>0.15761315962299699</v>
@@ -8183,8 +8193,8 @@
       <c r="O129" t="s">
         <v>3</v>
       </c>
-      <c r="P129" s="3">
-        <v>1.5849508199607997E-3</v>
+      <c r="P129" s="6">
+        <v>4.8764250823297006E-3</v>
       </c>
       <c r="Q129" s="3">
         <v>0.12304873764515001</v>
@@ -8239,8 +8249,8 @@
       <c r="O130" t="s">
         <v>0</v>
       </c>
-      <c r="P130" s="3">
-        <v>5.6263021797348899E-3</v>
+      <c r="P130" s="6">
+        <v>1.4609333687985799E-2</v>
       </c>
       <c r="Q130" s="3">
         <v>0.1041386055294424</v>
@@ -8295,8 +8305,8 @@
       <c r="O131" t="s">
         <v>1</v>
       </c>
-      <c r="P131" s="3">
-        <v>1.5060995265230304E-3</v>
+      <c r="P131" s="6">
+        <v>1.0814190871315101E-2</v>
       </c>
       <c r="Q131" s="3">
         <v>0.1095644176239145</v>
@@ -8351,8 +8361,8 @@
       <c r="O132" t="s">
         <v>1</v>
       </c>
-      <c r="P132" s="3">
-        <v>2.7003331997548308E-3</v>
+      <c r="P132" s="6">
+        <v>5.8738949592224803E-3</v>
       </c>
       <c r="Q132" s="3">
         <v>7.0091078698168691E-2</v>
@@ -8407,8 +8417,8 @@
       <c r="O133" t="s">
         <v>3</v>
       </c>
-      <c r="P133" s="3">
-        <v>9.2976291767854968E-4</v>
+      <c r="P133" s="6">
+        <v>4.1078971116804003E-3</v>
       </c>
       <c r="Q133" s="3">
         <v>0.191775462124497</v>
@@ -8463,8 +8473,8 @@
       <c r="O134" t="s">
         <v>1</v>
       </c>
-      <c r="P134" s="3">
-        <v>1.0339439313611296E-3</v>
+      <c r="P134" s="6">
+        <v>5.9990058944094996E-3</v>
       </c>
       <c r="Q134" s="3">
         <v>0.14610854862257902</v>
@@ -8519,8 +8529,8 @@
       <c r="O135" t="s">
         <v>2</v>
       </c>
-      <c r="P135" s="3">
-        <v>2.8139716450823506E-3</v>
+      <c r="P135" s="6">
+        <v>1.0677454643882799E-2</v>
       </c>
       <c r="Q135" s="3">
         <v>0.12970707286149191</v>
@@ -8575,8 +8585,8 @@
       <c r="O136" t="s">
         <v>2</v>
       </c>
-      <c r="P136" s="3">
-        <v>2.1752869361080299E-3</v>
+      <c r="P136" s="6">
+        <v>7.3258189077024007E-3</v>
       </c>
       <c r="Q136" s="3">
         <v>0.11832954129204121</v>
@@ -8631,8 +8641,8 @@
       <c r="O137" t="s">
         <v>1</v>
       </c>
-      <c r="P137" s="3">
-        <v>3.2030590227805997E-3</v>
+      <c r="P137" s="6">
+        <v>7.0008647162467987E-3</v>
       </c>
       <c r="Q137" s="3">
         <v>0.12817696016281749</v>
@@ -8687,8 +8697,8 @@
       <c r="O138" t="s">
         <v>0</v>
       </c>
-      <c r="P138" s="3">
-        <v>7.9957951675168979E-3</v>
+      <c r="P138" s="6">
+        <v>1.3429386715870401E-2</v>
       </c>
       <c r="Q138" s="3">
         <v>0.20661181444302198</v>
@@ -8743,8 +8753,8 @@
       <c r="O139" t="s">
         <v>2</v>
       </c>
-      <c r="P139" s="3">
-        <v>3.1844472832744906E-3</v>
+      <c r="P139" s="6">
+        <v>1.1145629308884899E-2</v>
       </c>
       <c r="Q139" s="3">
         <v>0.18714735889807299</v>
@@ -8799,8 +8809,8 @@
       <c r="O140" t="s">
         <v>0</v>
       </c>
-      <c r="P140" s="3">
-        <v>1.1041929712518999E-2</v>
+      <c r="P140" s="6">
+        <v>1.7105228689615601E-2</v>
       </c>
       <c r="Q140" s="3">
         <v>0.10745949717238469</v>
@@ -8855,8 +8865,8 @@
       <c r="O141" t="s">
         <v>3</v>
       </c>
-      <c r="P141" s="3">
-        <v>8.7481539576117961E-4</v>
+      <c r="P141" s="6">
+        <v>3.08344498625957E-3</v>
       </c>
       <c r="Q141" s="3">
         <v>0.14461238915100699</v>
@@ -8911,8 +8921,8 @@
       <c r="O142" t="s">
         <v>0</v>
       </c>
-      <c r="P142" s="3">
-        <v>2.13349968908005E-3</v>
+      <c r="P142" s="6">
+        <v>1.0510050808079601E-2</v>
       </c>
       <c r="Q142" s="3">
         <v>0.121120853233152</v>
@@ -8967,8 +8977,8 @@
       <c r="O143" t="s">
         <v>2</v>
       </c>
-      <c r="P143" s="3">
-        <v>3.3731415460351907E-3</v>
+      <c r="P143" s="6">
+        <v>7.3764748231042003E-3</v>
       </c>
       <c r="Q143" s="3">
         <v>0.15206544892862403</v>
@@ -9023,8 +9033,8 @@
       <c r="O144" t="s">
         <v>3</v>
       </c>
-      <c r="P144" s="3">
-        <v>1.3691380190721204E-3</v>
+      <c r="P144" s="6">
+        <v>1.7931395996129088E-3</v>
       </c>
       <c r="Q144" s="3">
         <v>0.10425714077427929</v>
@@ -9079,8 +9089,8 @@
       <c r="O145" t="s">
         <v>3</v>
       </c>
-      <c r="P145" s="3">
-        <v>1.4661757450085099E-3</v>
+      <c r="P145" s="6">
+        <v>6.4402101852465022E-3</v>
       </c>
       <c r="Q145" s="3">
         <v>0.14511387329548597</v>
@@ -9135,8 +9145,8 @@
       <c r="O146" t="s">
         <v>2</v>
       </c>
-      <c r="P146" s="3">
-        <v>1.7327667962945296E-3</v>
+      <c r="P146" s="6">
+        <v>1.9745287252590098E-2</v>
       </c>
       <c r="Q146" s="3">
         <v>0.11845595296472301</v>
@@ -9191,8 +9201,8 @@
       <c r="O147" t="s">
         <v>1</v>
       </c>
-      <c r="P147" s="3">
-        <v>1.60770342336036E-3</v>
+      <c r="P147" s="6">
+        <v>5.0431816598574195E-3</v>
       </c>
       <c r="Q147" s="3">
         <v>0.1139249084517352</v>
@@ -9247,8 +9257,8 @@
       <c r="O148" t="s">
         <v>2</v>
       </c>
-      <c r="P148" s="3">
-        <v>1.72978020782467E-3</v>
+      <c r="P148" s="6">
+        <v>1.8161015992518598E-2</v>
       </c>
       <c r="Q148" s="3">
         <v>9.8323575919493297E-2</v>
@@ -9303,8 +9313,8 @@
       <c r="O149" t="s">
         <v>2</v>
       </c>
-      <c r="P149" s="3">
-        <v>6.9312676205299985E-3</v>
+      <c r="P149" s="6">
+        <v>1.1224764224607501E-2</v>
       </c>
       <c r="Q149" s="3">
         <v>7.9005690873600293E-2</v>
@@ -9359,8 +9369,8 @@
       <c r="O150" t="s">
         <v>3</v>
       </c>
-      <c r="P150" s="3">
-        <v>1.3330824924651097E-3</v>
+      <c r="P150" s="6">
+        <v>6.1288465512916012E-3</v>
       </c>
       <c r="Q150" s="3">
         <v>0.15591812273487501</v>
@@ -9415,8 +9425,8 @@
       <c r="O151" t="s">
         <v>3</v>
       </c>
-      <c r="P151" s="3">
-        <v>1.1626628838712402E-3</v>
+      <c r="P151" s="6">
+        <v>6.5564645665290994E-3</v>
       </c>
       <c r="Q151" s="3">
         <v>0.11551417456939721</v>
@@ -9471,8 +9481,8 @@
       <c r="O152" t="s">
         <v>2</v>
       </c>
-      <c r="P152" s="3">
-        <v>1.6668757693878399E-3</v>
+      <c r="P152" s="6">
+        <v>1.3983754557557401E-2</v>
       </c>
       <c r="Q152" s="3">
         <v>0.1055614990182219</v>
@@ -9527,8 +9537,8 @@
       <c r="O153" t="s">
         <v>2</v>
       </c>
-      <c r="P153" s="3">
-        <v>1.4581606501451504E-3</v>
+      <c r="P153" s="6">
+        <v>1.2508976215031E-2</v>
       </c>
       <c r="Q153" s="3">
         <v>0.18682693084701898</v>
@@ -9583,8 +9593,8 @@
       <c r="O154" t="s">
         <v>1</v>
       </c>
-      <c r="P154" s="3">
-        <v>2.07861958824651E-3</v>
+      <c r="P154" s="6">
+        <v>1.6025588614866099E-2</v>
       </c>
       <c r="Q154" s="3">
         <v>0.13782195607200298</v>
@@ -9639,8 +9649,8 @@
       <c r="O155" t="s">
         <v>2</v>
       </c>
-      <c r="P155" s="3">
-        <v>3.3795139606809105E-3</v>
+      <c r="P155" s="6">
+        <v>2.0024552475661005E-2</v>
       </c>
       <c r="Q155" s="3">
         <v>0.18039852939546103</v>
@@ -9695,8 +9705,8 @@
       <c r="O156" t="s">
         <v>3</v>
       </c>
-      <c r="P156" s="3">
-        <v>1.3108209316214899E-3</v>
+      <c r="P156" s="6">
+        <v>4.1067281472350302E-3</v>
       </c>
       <c r="Q156" s="3">
         <v>4.5562689541839105E-2</v>
@@ -9751,8 +9761,8 @@
       <c r="O157" t="s">
         <v>1</v>
       </c>
-      <c r="P157" s="3">
-        <v>1.2891790211142498E-3</v>
+      <c r="P157" s="6">
+        <v>1.2212233967147702E-2</v>
       </c>
       <c r="Q157" s="3">
         <v>9.3338958104140099E-2</v>
@@ -9807,8 +9817,8 @@
       <c r="O158" t="s">
         <v>3</v>
       </c>
-      <c r="P158" s="3">
-        <v>1.1943257015900603E-3</v>
+      <c r="P158" s="6">
+        <v>3.3335701591567894E-3</v>
       </c>
       <c r="Q158" s="3">
         <v>0.10144546814262841</v>
@@ -9863,8 +9873,8 @@
       <c r="O159" t="s">
         <v>3</v>
       </c>
-      <c r="P159" s="3">
-        <v>1.2615885361810797E-3</v>
+      <c r="P159" s="6">
+        <v>4.4517866917885597E-3</v>
       </c>
       <c r="Q159" s="3">
         <v>7.8601224231533193E-2</v>
@@ -9919,8 +9929,8 @@
       <c r="O160" t="s">
         <v>1</v>
       </c>
-      <c r="P160" s="3">
-        <v>8.633612975472698E-4</v>
+      <c r="P160" s="6">
+        <v>8.2409453461877984E-3</v>
       </c>
       <c r="Q160" s="3">
         <v>0.1278478642925619</v>
@@ -9975,8 +9985,8 @@
       <c r="O161" t="s">
         <v>1</v>
       </c>
-      <c r="P161" s="3">
-        <v>7.5495070746001017E-4</v>
+      <c r="P161" s="6">
+        <v>7.5177322723903005E-3</v>
       </c>
       <c r="Q161" s="3">
         <v>0.20604289509356</v>
@@ -10031,8 +10041,8 @@
       <c r="O162" t="s">
         <v>1</v>
       </c>
-      <c r="P162" s="3">
-        <v>1.1226257736325399E-3</v>
+      <c r="P162" s="6">
+        <v>7.1080986817833001E-3</v>
       </c>
       <c r="Q162" s="3">
         <v>0.10354696516878902</v>
@@ -10087,8 +10097,8 @@
       <c r="O163" t="s">
         <v>2</v>
       </c>
-      <c r="P163" s="3">
-        <v>4.9491157988086013E-3</v>
+      <c r="P163" s="6">
+        <v>1.1655606562271699E-2</v>
       </c>
       <c r="Q163" s="3">
         <v>7.59036313393152E-2</v>
@@ -10143,8 +10153,8 @@
       <c r="O164" t="s">
         <v>3</v>
       </c>
-      <c r="P164" s="3">
-        <v>9.270479277461198E-4</v>
+      <c r="P164" s="6">
+        <v>4.2321279761381309E-3</v>
       </c>
       <c r="Q164" s="3">
         <v>0.11064723087474629</v>
@@ -10199,8 +10209,8 @@
       <c r="O165" t="s">
         <v>0</v>
       </c>
-      <c r="P165" s="3">
-        <v>2.8814770157623605E-3</v>
+      <c r="P165" s="6">
+        <v>1.2866959907114499E-2</v>
       </c>
       <c r="Q165" s="3">
         <v>0.18618190288543701</v>
@@ -10255,8 +10265,8 @@
       <c r="O166" t="s">
         <v>3</v>
       </c>
-      <c r="P166" s="3">
-        <v>1.4325139761695001E-3</v>
+      <c r="P166" s="6">
+        <v>8.4765159408561989E-3</v>
       </c>
       <c r="Q166" s="3">
         <v>0.13448611181229397</v>
@@ -10311,8 +10321,8 @@
       <c r="O167" t="s">
         <v>2</v>
       </c>
-      <c r="P167" s="3">
-        <v>4.5929602056275906E-3</v>
+      <c r="P167" s="6">
+        <v>2.4416810134425801E-2</v>
       </c>
       <c r="Q167" s="3">
         <v>0.12224030192010089</v>
@@ -10367,8 +10377,8 @@
       <c r="O168" t="s">
         <v>0</v>
       </c>
-      <c r="P168" s="3">
-        <v>3.8197189205675403E-3</v>
+      <c r="P168" s="6">
+        <v>2.4161647888831798E-2</v>
       </c>
       <c r="Q168" s="3">
         <v>9.5659253536722583E-2</v>
@@ -10423,8 +10433,8 @@
       <c r="O169" t="s">
         <v>0</v>
       </c>
-      <c r="P169" s="3">
-        <v>4.6866329648764197E-3</v>
+      <c r="P169" s="6">
+        <v>3.0474803643301199E-2</v>
       </c>
       <c r="Q169" s="3">
         <v>0.12341086985543399</v>
@@ -10479,8 +10489,8 @@
       <c r="O170" t="s">
         <v>2</v>
       </c>
-      <c r="P170" s="3">
-        <v>4.7884967643766997E-3</v>
+      <c r="P170" s="6">
+        <v>2.9960093845147702E-2</v>
       </c>
       <c r="Q170" s="3">
         <v>0.11761562735773601</v>
@@ -10535,8 +10545,8 @@
       <c r="O171" t="s">
         <v>0</v>
       </c>
-      <c r="P171" s="3">
-        <v>4.4093506294301706E-3</v>
+      <c r="P171" s="6">
+        <v>2.51772413030267E-2</v>
       </c>
       <c r="Q171" s="3">
         <v>9.2182436608709201E-2</v>
@@ -10591,8 +10601,8 @@
       <c r="O172" t="s">
         <v>1</v>
       </c>
-      <c r="P172" s="3">
-        <v>1.6060972848208595E-3</v>
+      <c r="P172" s="6">
+        <v>5.5410596905857597E-3</v>
       </c>
       <c r="Q172" s="3">
         <v>0.14113003341481101</v>
@@ -10647,8 +10657,8 @@
       <c r="O173" t="s">
         <v>3</v>
       </c>
-      <c r="P173" s="3">
-        <v>1.2409829569151095E-3</v>
+      <c r="P173" s="6">
+        <v>1.0507273196708501E-2</v>
       </c>
       <c r="Q173" s="3">
         <v>0.145704138092697</v>
@@ -10703,8 +10713,8 @@
       <c r="O174" t="s">
         <v>1</v>
       </c>
-      <c r="P174" s="3">
-        <v>9.059544275942205E-4</v>
+      <c r="P174" s="6">
+        <v>6.137315940577601E-3</v>
       </c>
       <c r="Q174" s="3">
         <v>8.4921488538384396E-2</v>
@@ -10759,8 +10769,8 @@
       <c r="O175" t="s">
         <v>0</v>
       </c>
-      <c r="P175" s="3">
-        <v>2.5743804453668396E-3</v>
+      <c r="P175" s="6">
+        <v>1.4680223073810398E-2</v>
       </c>
       <c r="Q175" s="3">
         <v>0.113883743993938</v>
@@ -10815,8 +10825,8 @@
       <c r="O176" t="s">
         <v>3</v>
       </c>
-      <c r="P176" s="3">
-        <v>1.6673706704750596E-3</v>
+      <c r="P176" s="6">
+        <v>4.9442964245826598E-3</v>
       </c>
       <c r="Q176" s="3">
         <v>6.1918128281831401E-2</v>
@@ -10871,8 +10881,8 @@
       <c r="O177" t="s">
         <v>3</v>
       </c>
-      <c r="P177" s="3">
-        <v>1.2577941029121601E-3</v>
+      <c r="P177" s="6">
+        <v>6.9980495172786011E-3</v>
       </c>
       <c r="Q177" s="3">
         <v>0.1028511497424912</v>
@@ -10927,8 +10937,8 @@
       <c r="O178" t="s">
         <v>2</v>
       </c>
-      <c r="P178" s="3">
-        <v>2.1686186373699404E-3</v>
+      <c r="P178" s="6">
+        <v>8.9759290785877983E-3</v>
       </c>
       <c r="Q178" s="3">
         <v>9.4039048301055209E-2</v>
@@ -10983,8 +10993,8 @@
       <c r="O179" t="s">
         <v>3</v>
       </c>
-      <c r="P179" s="3">
-        <v>1.5851917585223392E-3</v>
+      <c r="P179" s="6">
+        <v>6.3126764143817023E-3</v>
       </c>
       <c r="Q179" s="3">
         <v>8.60101708676662E-2</v>
@@ -11039,8 +11049,8 @@
       <c r="O180" t="s">
         <v>0</v>
       </c>
-      <c r="P180" s="3">
-        <v>7.0660358760505403E-3</v>
+      <c r="P180" s="6">
+        <v>1.6751919785747398E-2</v>
       </c>
       <c r="Q180" s="3">
         <v>0.116158459451981</v>
@@ -11095,8 +11105,8 @@
       <c r="O181" t="s">
         <v>1</v>
       </c>
-      <c r="P181" s="3">
-        <v>9.8486153137855971E-4</v>
+      <c r="P181" s="6">
+        <v>1.1876144038979002E-2</v>
       </c>
       <c r="Q181" s="3">
         <v>0.1352044888772071</v>
@@ -11151,8 +11161,8 @@
       <c r="O182" t="s">
         <v>1</v>
       </c>
-      <c r="P182" s="3">
-        <v>9.733678725751798E-4</v>
+      <c r="P182" s="6">
+        <v>9.1129996581004024E-3</v>
       </c>
       <c r="Q182" s="3">
         <v>0.14909582445398001</v>
@@ -11207,8 +11217,8 @@
       <c r="O183" t="s">
         <v>0</v>
       </c>
-      <c r="P183" s="3">
-        <v>9.1414645430631988E-3</v>
+      <c r="P183" s="6">
+        <v>1.2342140340479099E-2</v>
       </c>
       <c r="Q183" s="3">
         <v>0.12500792578794101</v>
@@ -11263,8 +11273,8 @@
       <c r="O184" t="s">
         <v>1</v>
       </c>
-      <c r="P184" s="3">
-        <v>1.6288684587380002E-3</v>
+      <c r="P184" s="6">
+        <v>6.6405808684067008E-3</v>
       </c>
       <c r="Q184" s="3">
         <v>0.1009541992098085</v>
@@ -11319,8 +11329,8 @@
       <c r="O185" t="s">
         <v>2</v>
       </c>
-      <c r="P185" s="3">
-        <v>2.1448330144266904E-3</v>
+      <c r="P185" s="6">
+        <v>1.36858680925798E-2</v>
       </c>
       <c r="Q185" s="3">
         <v>0.141062436625361</v>
@@ -11375,8 +11385,8 @@
       <c r="O186" t="s">
         <v>2</v>
       </c>
-      <c r="P186" s="3">
-        <v>1.3416142683127003E-3</v>
+      <c r="P186" s="6">
+        <v>1.4807648956775697E-2</v>
       </c>
       <c r="Q186" s="3">
         <v>0.148867334239185</v>
@@ -11431,8 +11441,8 @@
       <c r="O187" t="s">
         <v>3</v>
       </c>
-      <c r="P187" s="3">
-        <v>8.9839780753208981E-4</v>
+      <c r="P187" s="6">
+        <v>5.5423850426450996E-3</v>
       </c>
       <c r="Q187" s="3">
         <v>0.13235269160941199</v>
@@ -11487,8 +11497,8 @@
       <c r="O188" t="s">
         <v>2</v>
       </c>
-      <c r="P188" s="3">
-        <v>2.49087487009092E-3</v>
+      <c r="P188" s="6">
+        <v>1.5373054717201701E-2</v>
       </c>
       <c r="Q188" s="3">
         <v>0.17514063650742204</v>
@@ -11543,8 +11553,8 @@
       <c r="O189" t="s">
         <v>2</v>
       </c>
-      <c r="P189" s="3">
-        <v>1.4029193572468995E-3</v>
+      <c r="P189" s="6">
+        <v>1.0602429130813102E-2</v>
       </c>
       <c r="Q189" s="3">
         <v>0.10295806231442799</v>
@@ -11599,8 +11609,8 @@
       <c r="O190" t="s">
         <v>0</v>
       </c>
-      <c r="P190" s="3">
-        <v>3.8123440681374701E-3</v>
+      <c r="P190" s="6">
+        <v>1.2305050971917799E-2</v>
       </c>
       <c r="Q190" s="3">
         <v>0.16743132658302798</v>
@@ -11655,8 +11665,8 @@
       <c r="O191" t="s">
         <v>1</v>
       </c>
-      <c r="P191" s="3">
-        <v>9.9598195379258002E-4</v>
+      <c r="P191" s="6">
+        <v>7.5699391891248993E-3</v>
       </c>
       <c r="Q191" s="3">
         <v>0.17560285422951</v>
@@ -11711,8 +11721,8 @@
       <c r="O192" t="s">
         <v>3</v>
       </c>
-      <c r="P192" s="3">
-        <v>9.1913924615027965E-4</v>
+      <c r="P192" s="6">
+        <v>3.7453832337632394E-3</v>
       </c>
       <c r="Q192" s="3">
         <v>9.916993242222899E-2</v>
@@ -11767,8 +11777,8 @@
       <c r="O193" t="s">
         <v>2</v>
       </c>
-      <c r="P193" s="3">
-        <v>7.1657395710644995E-4</v>
+      <c r="P193" s="6">
+        <v>7.7023853373248009E-3</v>
       </c>
       <c r="Q193" s="3">
         <v>0.134743330068886</v>
@@ -11823,8 +11833,8 @@
       <c r="O194" t="s">
         <v>0</v>
       </c>
-      <c r="P194" s="3">
-        <v>2.91784735600231E-3</v>
+      <c r="P194" s="6">
+        <v>1.46874028141611E-2</v>
       </c>
       <c r="Q194" s="3">
         <v>0.16858237842097901</v>
@@ -11879,7 +11889,7 @@
       <c r="O195" t="s">
         <v>0</v>
       </c>
-      <c r="P195" s="3">
+      <c r="P195" s="6">
         <v>1.5135813882807299E-2</v>
       </c>
       <c r="Q195" s="3">
@@ -11935,8 +11945,8 @@
       <c r="O196" t="s">
         <v>0</v>
       </c>
-      <c r="P196" s="3">
-        <v>3.6097924639761896E-3</v>
+      <c r="P196" s="6">
+        <v>1.9608268761658099E-2</v>
       </c>
       <c r="Q196" s="3">
         <v>0.1002372680231926</v>
@@ -11991,8 +12001,8 @@
       <c r="O197" t="s">
         <v>2</v>
       </c>
-      <c r="P197" s="3">
-        <v>3.842644411633859E-3</v>
+      <c r="P197" s="6">
+        <v>2.5160322780720903E-2</v>
       </c>
       <c r="Q197" s="3">
         <v>0.13943902030587199</v>
@@ -12047,8 +12057,8 @@
       <c r="O198" t="s">
         <v>0</v>
       </c>
-      <c r="P198" s="3">
-        <v>4.5682710770051597E-3</v>
+      <c r="P198" s="6">
+        <v>3.09976891148835E-2</v>
       </c>
       <c r="Q198" s="3">
         <v>0.16971922107040902</v>
@@ -12103,8 +12113,8 @@
       <c r="O199" t="s">
         <v>3</v>
       </c>
-      <c r="P199" s="3">
-        <v>1.3978296192362896E-3</v>
+      <c r="P199" s="6">
+        <v>4.0142578145605113E-3</v>
       </c>
       <c r="Q199" s="3">
         <v>7.5880571792367887E-2</v>
@@ -12159,8 +12169,8 @@
       <c r="O200" t="s">
         <v>2</v>
       </c>
-      <c r="P200" s="3">
-        <v>2.4606410588603501E-3</v>
+      <c r="P200" s="6">
+        <v>7.3543927283026E-3</v>
       </c>
       <c r="Q200" s="3">
         <v>0.1081547330832104</v>
@@ -12215,8 +12225,8 @@
       <c r="O201" t="s">
         <v>0</v>
       </c>
-      <c r="P201" s="3">
-        <v>3.0717532345079304E-3</v>
+      <c r="P201" s="6">
+        <v>1.3423929311102202E-2</v>
       </c>
       <c r="Q201" s="3">
         <v>0.15665887016802998</v>
@@ -12271,8 +12281,8 @@
       <c r="O202" t="s">
         <v>2</v>
       </c>
-      <c r="P202" s="3">
-        <v>2.8057607523806006E-3</v>
+      <c r="P202" s="6">
+        <v>1.6290425031911603E-2</v>
       </c>
       <c r="Q202" s="3">
         <v>0.10003474005497999</v>
@@ -12327,8 +12337,8 @@
       <c r="O203" t="s">
         <v>2</v>
       </c>
-      <c r="P203" s="3">
-        <v>3.0948377971071811E-3</v>
+      <c r="P203" s="6">
+        <v>1.03863730655576E-2</v>
       </c>
       <c r="Q203" s="3">
         <v>0.130864747334272</v>
@@ -12383,8 +12393,8 @@
       <c r="O204" t="s">
         <v>3</v>
       </c>
-      <c r="P204" s="3">
-        <v>2.0042816558998302E-3</v>
+      <c r="P204" s="6">
+        <v>1.2819861702155301E-2</v>
       </c>
       <c r="Q204" s="3">
         <v>0.16587356198579098</v>
@@ -12439,8 +12449,8 @@
       <c r="O205" t="s">
         <v>3</v>
       </c>
-      <c r="P205" s="3">
-        <v>1.6961101355263998E-3</v>
+      <c r="P205" s="6">
+        <v>4.6012193633940997E-3</v>
       </c>
       <c r="Q205" s="3">
         <v>7.1095289313234306E-2</v>
@@ -12495,8 +12505,8 @@
       <c r="O206" t="s">
         <v>0</v>
       </c>
-      <c r="P206" s="3">
-        <v>6.2121957380440601E-3</v>
+      <c r="P206" s="6">
+        <v>1.8569319625385102E-2</v>
       </c>
       <c r="Q206" s="3">
         <v>0.17396925203502198</v>
@@ -12551,8 +12561,8 @@
       <c r="O207" t="s">
         <v>0</v>
       </c>
-      <c r="P207" s="3">
-        <v>2.2738673978892603E-3</v>
+      <c r="P207" s="6">
+        <v>1.50874997925712E-2</v>
       </c>
       <c r="Q207" s="3">
         <v>0.16489436663687199</v>
@@ -12607,8 +12617,8 @@
       <c r="O208" t="s">
         <v>2</v>
       </c>
-      <c r="P208" s="3">
-        <v>1.2986386968805198E-3</v>
+      <c r="P208" s="6">
+        <v>1.44876291742548E-2</v>
       </c>
       <c r="Q208" s="3">
         <v>0.12048163870349601</v>
@@ -12663,8 +12673,8 @@
       <c r="O209" t="s">
         <v>0</v>
       </c>
-      <c r="P209" s="3">
-        <v>2.6516766884014994E-3</v>
+      <c r="P209" s="6">
+        <v>1.2298628964345E-2</v>
       </c>
       <c r="Q209" s="3">
         <v>0.14379284344613499</v>
@@ -12719,8 +12729,8 @@
       <c r="O210" t="s">
         <v>3</v>
       </c>
-      <c r="P210" s="3">
-        <v>9.5932405292841957E-4</v>
+      <c r="P210" s="6">
+        <v>9.5593080623075019E-3</v>
       </c>
       <c r="Q210" s="3">
         <v>0.11658827005885471</v>
@@ -12775,8 +12785,8 @@
       <c r="O211" t="s">
         <v>3</v>
       </c>
-      <c r="P211" s="3">
-        <v>1.6197030054172501E-3</v>
+      <c r="P211" s="6">
+        <v>4.5075602065480693E-3</v>
       </c>
       <c r="Q211" s="3">
         <v>9.6686664968728311E-2</v>
@@ -12831,8 +12841,8 @@
       <c r="O212" t="s">
         <v>2</v>
       </c>
-      <c r="P212" s="3">
-        <v>1.5432443069585099E-3</v>
+      <c r="P212" s="6">
+        <v>1.14205252029933E-2</v>
       </c>
       <c r="Q212" s="3">
         <v>0.113461693748832</v>
@@ -12887,8 +12897,8 @@
       <c r="O213" t="s">
         <v>2</v>
       </c>
-      <c r="P213" s="3">
-        <v>2.1699946191802199E-3</v>
+      <c r="P213" s="6">
+        <v>1.1967983591603101E-2</v>
       </c>
       <c r="Q213" s="3">
         <v>0.145060136448592</v>
@@ -12943,8 +12953,8 @@
       <c r="O214" t="s">
         <v>2</v>
       </c>
-      <c r="P214" s="3">
-        <v>2.4008964646782304E-3</v>
+      <c r="P214" s="6">
+        <v>1.27180134295486E-2</v>
       </c>
       <c r="Q214" s="3">
         <v>0.12837192276492704</v>
@@ -12999,8 +13009,8 @@
       <c r="O215" t="s">
         <v>3</v>
       </c>
-      <c r="P215" s="3">
-        <v>9.1898868913631044E-4</v>
+      <c r="P215" s="6">
+        <v>8.9060340542345996E-3</v>
       </c>
       <c r="Q215" s="3">
         <v>0.117228274815716</v>
@@ -13055,8 +13065,8 @@
       <c r="O216" t="s">
         <v>1</v>
       </c>
-      <c r="P216" s="3">
-        <v>2.6308747765142497E-3</v>
+      <c r="P216" s="6">
+        <v>8.0281564441976021E-3</v>
       </c>
       <c r="Q216" s="3">
         <v>0.13875540206208803</v>
@@ -13111,8 +13121,8 @@
       <c r="O217" t="s">
         <v>0</v>
       </c>
-      <c r="P217" s="3">
-        <v>8.3315703377593014E-3</v>
+      <c r="P217" s="6">
+        <v>1.4171091082971498E-2</v>
       </c>
       <c r="Q217" s="3">
         <v>0.22382027562707602</v>
@@ -13167,8 +13177,8 @@
       <c r="O218" t="s">
         <v>3</v>
       </c>
-      <c r="P218" s="3">
-        <v>2.0230045302014402E-3</v>
+      <c r="P218" s="6">
+        <v>5.5694675538688985E-3</v>
       </c>
       <c r="Q218" s="3">
         <v>0.16311614774167499</v>
@@ -13223,8 +13233,8 @@
       <c r="O219" t="s">
         <v>1</v>
       </c>
-      <c r="P219" s="3">
-        <v>9.4991706509973007E-4</v>
+      <c r="P219" s="6">
+        <v>7.7417159918695983E-3</v>
       </c>
       <c r="Q219" s="3">
         <v>0.143774531665258</v>
@@ -13279,8 +13289,8 @@
       <c r="O220" t="s">
         <v>1</v>
       </c>
-      <c r="P220" s="3">
-        <v>2.3588736567035102E-3</v>
+      <c r="P220" s="6">
+        <v>1.3703761855140301E-2</v>
       </c>
       <c r="Q220" s="3">
         <v>0.11888180440291751</v>
@@ -13335,8 +13345,8 @@
       <c r="O221" t="s">
         <v>1</v>
       </c>
-      <c r="P221" s="3">
-        <v>2.4686492470209495E-3</v>
+      <c r="P221" s="6">
+        <v>1.8868588260375001E-2</v>
       </c>
       <c r="Q221" s="3">
         <v>9.9987140041776001E-2</v>
@@ -13391,8 +13401,8 @@
       <c r="O222" t="s">
         <v>0</v>
       </c>
-      <c r="P222" s="3">
-        <v>4.5772304292768309E-3</v>
+      <c r="P222" s="6">
+        <v>2.6750142686069001E-2</v>
       </c>
       <c r="Q222" s="3">
         <v>0.23567475005984398</v>
@@ -13447,8 +13457,8 @@
       <c r="O223" t="s">
         <v>1</v>
       </c>
-      <c r="P223" s="3">
-        <v>2.6465856644790594E-3</v>
+      <c r="P223" s="6">
+        <v>6.2984454416436294E-3</v>
       </c>
       <c r="Q223" s="3">
         <v>8.1175732193514608E-2</v>
@@ -13503,8 +13513,8 @@
       <c r="O224" t="s">
         <v>0</v>
       </c>
-      <c r="P224" s="3">
-        <v>5.0241876742802404E-3</v>
+      <c r="P224" s="6">
+        <v>1.49959133341327E-2</v>
       </c>
       <c r="Q224" s="3">
         <v>6.9909390993416198E-2</v>
@@ -13559,8 +13569,8 @@
       <c r="O225" t="s">
         <v>0</v>
       </c>
-      <c r="P225" s="3">
-        <v>2.8561518984133705E-3</v>
+      <c r="P225" s="6">
+        <v>1.8920248287031403E-2</v>
       </c>
       <c r="Q225" s="3">
         <v>9.1430219123140005E-2</v>
@@ -13615,8 +13625,8 @@
       <c r="O226" t="s">
         <v>2</v>
       </c>
-      <c r="P226" s="3">
-        <v>2.4374194053962102E-3</v>
+      <c r="P226" s="6">
+        <v>1.8561697681434404E-2</v>
       </c>
       <c r="Q226" s="3">
         <v>0.102539346786216</v>
@@ -13671,8 +13681,8 @@
       <c r="O227" t="s">
         <v>2</v>
       </c>
-      <c r="P227" s="3">
-        <v>1.0919809446932002E-3</v>
+      <c r="P227" s="6">
+        <v>9.4380787923000996E-3</v>
       </c>
       <c r="Q227" s="3">
         <v>9.7674173768609304E-2</v>
@@ -13727,8 +13737,8 @@
       <c r="O228" t="s">
         <v>0</v>
       </c>
-      <c r="P228" s="3">
-        <v>3.0603500854340399E-3</v>
+      <c r="P228" s="6">
+        <v>1.43970154749695E-2</v>
       </c>
       <c r="Q228" s="3">
         <v>0.122704775189049</v>
@@ -13783,8 +13793,8 @@
       <c r="O229" t="s">
         <v>1</v>
       </c>
-      <c r="P229" s="3">
-        <v>2.3177185576059899E-3</v>
+      <c r="P229" s="6">
+        <v>1.9970631750766198E-2</v>
       </c>
       <c r="Q229" s="3">
         <v>0.14672390662599399</v>
@@ -13839,8 +13849,8 @@
       <c r="O230" t="s">
         <v>3</v>
       </c>
-      <c r="P230" s="3">
-        <v>1.6961619985522694E-3</v>
+      <c r="P230" s="6">
+        <v>4.0079818318189894E-3</v>
       </c>
       <c r="Q230" s="3">
         <v>0.1059175569098441</v>
@@ -13895,8 +13905,8 @@
       <c r="O231" t="s">
         <v>0</v>
       </c>
-      <c r="P231" s="3">
-        <v>3.4083725799973798E-3</v>
+      <c r="P231" s="6">
+        <v>1.8413500976748699E-2</v>
       </c>
       <c r="Q231" s="3">
         <v>0.15538351144641702</v>
@@ -13951,8 +13961,8 @@
       <c r="O232" t="s">
         <v>0</v>
       </c>
-      <c r="P232" s="3">
-        <v>2.8822402009609505E-3</v>
+      <c r="P232" s="6">
+        <v>1.8428413983201601E-2</v>
       </c>
       <c r="Q232" s="3">
         <v>0.21822570916265202</v>
@@ -14007,8 +14017,8 @@
       <c r="O233" t="s">
         <v>0</v>
       </c>
-      <c r="P233" s="3">
-        <v>6.4432068829773604E-3</v>
+      <c r="P233" s="6">
+        <v>1.6036374232498998E-2</v>
       </c>
       <c r="Q233" s="3">
         <v>0.16909570293500997</v>
@@ -14063,8 +14073,8 @@
       <c r="O234" t="s">
         <v>3</v>
       </c>
-      <c r="P234" s="3">
-        <v>1.5588818932883407E-3</v>
+      <c r="P234" s="6">
+        <v>3.1777032090757901E-3</v>
       </c>
       <c r="Q234" s="3">
         <v>9.8459218628703618E-2</v>
@@ -14119,8 +14129,8 @@
       <c r="O235" t="s">
         <v>2</v>
       </c>
-      <c r="P235" s="3">
-        <v>2.7518691749719403E-3</v>
+      <c r="P235" s="6">
+        <v>9.6680180577095008E-3</v>
       </c>
       <c r="Q235" s="3">
         <v>0.12374117784202091</v>
@@ -14175,8 +14185,8 @@
       <c r="O236" t="s">
         <v>2</v>
       </c>
-      <c r="P236" s="3">
-        <v>1.0521982474074303E-3</v>
+      <c r="P236" s="6">
+        <v>1.4284125063568302E-2</v>
       </c>
       <c r="Q236" s="3">
         <v>0.11087412992492399</v>
@@ -14231,8 +14241,8 @@
       <c r="O237" t="s">
         <v>1</v>
       </c>
-      <c r="P237" s="3">
-        <v>1.9003825727850207E-3</v>
+      <c r="P237" s="6">
+        <v>4.7487557458224996E-3</v>
       </c>
       <c r="Q237" s="3">
         <v>9.0679864748381106E-2</v>
@@ -14287,8 +14297,8 @@
       <c r="O238" t="s">
         <v>1</v>
       </c>
-      <c r="P238" s="3">
-        <v>1.2935768245370101E-3</v>
+      <c r="P238" s="6">
+        <v>6.2450291879940015E-3</v>
       </c>
       <c r="Q238" s="3">
         <v>0.15460294252261497</v>
@@ -14343,8 +14353,8 @@
       <c r="O239" t="s">
         <v>3</v>
       </c>
-      <c r="P239" s="3">
-        <v>1.4829021019977595E-3</v>
+      <c r="P239" s="6">
+        <v>5.2775445510634001E-3</v>
       </c>
       <c r="Q239" s="3">
         <v>0.12568437261506901</v>
@@ -14399,8 +14409,8 @@
       <c r="O240" t="s">
         <v>0</v>
       </c>
-      <c r="P240" s="3">
-        <v>4.3479592713993103E-3</v>
+      <c r="P240" s="6">
+        <v>1.39745384512934E-2</v>
       </c>
       <c r="Q240" s="3">
         <v>0.14974576933309403</v>
@@ -14455,8 +14465,8 @@
       <c r="O241" t="s">
         <v>3</v>
       </c>
-      <c r="P241" s="3">
-        <v>2.5338166160508904E-3</v>
+      <c r="P241" s="6">
+        <v>5.4471136536449003E-3</v>
       </c>
       <c r="Q241" s="3">
         <v>0.150982981547713</v>
@@ -14511,8 +14521,8 @@
       <c r="O242" t="s">
         <v>0</v>
       </c>
-      <c r="P242" s="3">
-        <v>1.16846474120393E-2</v>
+      <c r="P242" s="6">
+        <v>1.7440894473111302E-2</v>
       </c>
       <c r="Q242" s="3">
         <v>8.8981233770027812E-2</v>
@@ -14567,8 +14577,8 @@
       <c r="O243" t="s">
         <v>1</v>
       </c>
-      <c r="P243" s="3">
-        <v>4.4544185511767986E-3</v>
+      <c r="P243" s="6">
+        <v>4.1161200642818099E-3</v>
       </c>
       <c r="Q243" s="3">
         <v>0.14612855715677098</v>
@@ -14623,8 +14633,8 @@
       <c r="O244" t="s">
         <v>0</v>
       </c>
-      <c r="P244" s="3">
-        <v>1.9972981302998898E-2</v>
+      <c r="P244" s="6">
+        <v>2.2873966256156602E-2</v>
       </c>
       <c r="Q244" s="3">
         <v>8.8149756076745495E-2</v>
@@ -14679,8 +14689,8 @@
       <c r="O245" t="s">
         <v>1</v>
       </c>
-      <c r="P245" s="3">
-        <v>4.1617868992034988E-3</v>
+      <c r="P245" s="6">
+        <v>4.7436004097107087E-3</v>
       </c>
       <c r="Q245" s="3">
         <v>0.164916973095387</v>
@@ -14735,8 +14745,8 @@
       <c r="O246" t="s">
         <v>0</v>
       </c>
-      <c r="P246" s="3">
-        <v>1.9892431329935796E-2</v>
+      <c r="P246" s="6">
+        <v>2.2941476665437204E-2</v>
       </c>
       <c r="Q246" s="3">
         <v>0.147967557422817</v>
@@ -14791,8 +14801,8 @@
       <c r="O247" t="s">
         <v>1</v>
       </c>
-      <c r="P247" s="3">
-        <v>2.1333237527869702E-3</v>
+      <c r="P247" s="6">
+        <v>4.2731869616545199E-3</v>
       </c>
       <c r="Q247" s="3">
         <v>0.15910791698843302</v>
@@ -14847,8 +14857,8 @@
       <c r="O248" t="s">
         <v>0</v>
       </c>
-      <c r="P248" s="3">
-        <v>3.0430984970735197E-3</v>
+      <c r="P248" s="6">
+        <v>1.4202979917172402E-2</v>
       </c>
       <c r="Q248" s="3">
         <v>0.13554063509218398</v>
@@ -14903,8 +14913,8 @@
       <c r="O249" t="s">
         <v>2</v>
       </c>
-      <c r="P249" s="3">
-        <v>1.0625836730469001E-3</v>
+      <c r="P249" s="6">
+        <v>1.2091103068087201E-2</v>
       </c>
       <c r="Q249" s="3">
         <v>0.245668385177851</v>
@@ -14959,8 +14969,8 @@
       <c r="O250" t="s">
         <v>1</v>
       </c>
-      <c r="P250" s="3">
-        <v>9.7526460194785006E-4</v>
+      <c r="P250" s="6">
+        <v>7.5099978130310011E-3</v>
       </c>
       <c r="Q250" s="3">
         <v>0.107362805400043</v>
@@ -15015,8 +15025,8 @@
       <c r="O251" t="s">
         <v>2</v>
       </c>
-      <c r="P251" s="3">
-        <v>6.8543956717802973E-4</v>
+      <c r="P251" s="6">
+        <v>7.0489220379385993E-3</v>
       </c>
       <c r="Q251" s="3">
         <v>0.19088772870600199</v>
@@ -15071,8 +15081,8 @@
       <c r="O252" t="s">
         <v>1</v>
       </c>
-      <c r="P252" s="3">
-        <v>9.4201508221659035E-4</v>
+      <c r="P252" s="6">
+        <v>8.0585386021994002E-3</v>
       </c>
       <c r="Q252" s="3">
         <v>0.15715081896632901</v>
@@ -15127,8 +15137,8 @@
       <c r="O253" t="s">
         <v>1</v>
       </c>
-      <c r="P253" s="3">
-        <v>1.0091115404975396E-3</v>
+      <c r="P253" s="6">
+        <v>7.3660990456119006E-3</v>
       </c>
       <c r="Q253" s="3">
         <v>8.4982116706668692E-2</v>
@@ -15183,8 +15193,8 @@
       <c r="O254" t="s">
         <v>1</v>
       </c>
-      <c r="P254" s="3">
-        <v>1.5141531766858004E-3</v>
+      <c r="P254" s="6">
+        <v>4.9816946993814001E-3</v>
       </c>
       <c r="Q254" s="3">
         <v>8.839173917658591E-2</v>
@@ -15239,8 +15249,8 @@
       <c r="O255" t="s">
         <v>2</v>
       </c>
-      <c r="P255" s="3">
-        <v>8.4737372321796968E-4</v>
+      <c r="P255" s="6">
+        <v>1.1975559638813199E-2</v>
       </c>
       <c r="Q255" s="3">
         <v>0.18045423552393897</v>
@@ -15295,8 +15305,8 @@
       <c r="O256" t="s">
         <v>0</v>
       </c>
-      <c r="P256" s="3">
-        <v>3.4177440593339201E-3</v>
+      <c r="P256" s="6">
+        <v>2.7976484037935699E-2</v>
       </c>
       <c r="Q256" s="3">
         <v>5.3632037248462008E-2</v>
@@ -15351,8 +15361,8 @@
       <c r="O257" t="s">
         <v>0</v>
       </c>
-      <c r="P257" s="3">
-        <v>4.7467324275203195E-3</v>
+      <c r="P257" s="6">
+        <v>2.5436461495701203E-2</v>
       </c>
       <c r="Q257" s="3">
         <v>0.14120251894928601</v>
@@ -15407,8 +15417,8 @@
       <c r="O258" t="s">
         <v>0</v>
       </c>
-      <c r="P258" s="3">
-        <v>1.19719277136028E-2</v>
+      <c r="P258" s="6">
+        <v>1.5797143161762499E-2</v>
       </c>
       <c r="Q258" s="3">
         <v>8.5968347964807706E-2</v>
@@ -15463,8 +15473,8 @@
       <c r="O259" t="s">
         <v>1</v>
       </c>
-      <c r="P259" s="3">
-        <v>3.9108959026635005E-3</v>
+      <c r="P259" s="6">
+        <v>7.9272635048254995E-3</v>
       </c>
       <c r="Q259" s="3">
         <v>0.1093796007335178</v>
@@ -15519,8 +15529,8 @@
       <c r="O260" t="s">
         <v>3</v>
       </c>
-      <c r="P260" s="3">
-        <v>1.6189254820346798E-3</v>
+      <c r="P260" s="6">
+        <v>3.6779253168788308E-3</v>
       </c>
       <c r="Q260" s="3">
         <v>0.14260437991470098</v>
@@ -15575,8 +15585,8 @@
       <c r="O261" t="s">
         <v>3</v>
       </c>
-      <c r="P261" s="3">
-        <v>9.3031004837484943E-4</v>
+      <c r="P261" s="6">
+        <v>3.3854458743007212E-3</v>
       </c>
       <c r="Q261" s="3">
         <v>9.2700269306078095E-2</v>
@@ -15631,8 +15641,8 @@
       <c r="O262" t="s">
         <v>2</v>
       </c>
-      <c r="P262" s="3">
-        <v>3.18716092442628E-3</v>
+      <c r="P262" s="6">
+        <v>9.9344229674898001E-3</v>
       </c>
       <c r="Q262" s="3">
         <v>5.4589365550782504E-2</v>
@@ -15687,8 +15697,8 @@
       <c r="O263" t="s">
         <v>0</v>
       </c>
-      <c r="P263" s="3">
-        <v>7.0033675874582608E-3</v>
+      <c r="P263" s="6">
+        <v>2.4803644162602698E-2</v>
       </c>
       <c r="Q263" s="3">
         <v>0.12852209713310001</v>
@@ -15743,8 +15753,8 @@
       <c r="O264" t="s">
         <v>0</v>
       </c>
-      <c r="P264" s="3">
-        <v>1.0478846263140398E-2</v>
+      <c r="P264" s="6">
+        <v>2.7164970582816802E-2</v>
       </c>
       <c r="Q264" s="3">
         <v>0.1919213719666</v>
@@ -15799,8 +15809,8 @@
       <c r="O265" t="s">
         <v>2</v>
       </c>
-      <c r="P265" s="3">
-        <v>4.2839460220420005E-3</v>
+      <c r="P265" s="6">
+        <v>9.0218817058485001E-3</v>
       </c>
       <c r="Q265" s="3">
         <v>0.14297122927382599</v>
@@ -15855,8 +15865,8 @@
       <c r="O266" t="s">
         <v>1</v>
       </c>
-      <c r="P266" s="3">
-        <v>2.7018508772016503E-3</v>
+      <c r="P266" s="6">
+        <v>4.9717263464116503E-3</v>
       </c>
       <c r="Q266" s="3">
         <v>8.3551421528682085E-2</v>
@@ -15911,8 +15921,8 @@
       <c r="O267" t="s">
         <v>2</v>
       </c>
-      <c r="P267" s="3">
-        <v>2.6218994753435306E-3</v>
+      <c r="P267" s="6">
+        <v>6.749951251549589E-3</v>
       </c>
       <c r="Q267" s="3">
         <v>2.8698699607048198E-2</v>
@@ -15967,8 +15977,8 @@
       <c r="O268" t="s">
         <v>3</v>
       </c>
-      <c r="P268" s="3">
-        <v>9.2070642995168003E-4</v>
+      <c r="P268" s="6">
+        <v>4.1450106728006999E-3</v>
       </c>
       <c r="Q268" s="3">
         <v>0.113506723660976</v>
@@ -16023,8 +16033,8 @@
       <c r="O269" t="s">
         <v>2</v>
       </c>
-      <c r="P269" s="3">
-        <v>9.1833372516703007E-4</v>
+      <c r="P269" s="6">
+        <v>4.38952077092831E-3</v>
       </c>
       <c r="Q269" s="3">
         <v>6.7753665149211495E-2</v>
@@ -16079,8 +16089,8 @@
       <c r="O270" t="s">
         <v>1</v>
       </c>
-      <c r="P270" s="3">
-        <v>2.02829430054408E-3</v>
+      <c r="P270" s="6">
+        <v>7.2091533220372608E-3</v>
       </c>
       <c r="Q270" s="3">
         <v>6.4966529142110999E-2</v>
@@ -16135,8 +16145,8 @@
       <c r="O271" t="s">
         <v>0</v>
       </c>
-      <c r="P271" s="3">
-        <v>8.5137431742622997E-3</v>
+      <c r="P271" s="6">
+        <v>1.5252391283866001E-2</v>
       </c>
       <c r="Q271" s="3">
         <v>0.17863696673884999</v>
@@ -16191,8 +16201,8 @@
       <c r="O272" t="s">
         <v>1</v>
       </c>
-      <c r="P272" s="3">
-        <v>4.3490584939717986E-3</v>
+      <c r="P272" s="6">
+        <v>9.9104472319596019E-3</v>
       </c>
       <c r="Q272" s="3">
         <v>0.15400476194918097</v>
@@ -16247,8 +16257,8 @@
       <c r="O273" t="s">
         <v>1</v>
       </c>
-      <c r="P273" s="3">
-        <v>3.6192733095958985E-3</v>
+      <c r="P273" s="6">
+        <v>8.4516577189789003E-3</v>
       </c>
       <c r="Q273" s="3">
         <v>6.3313561608083102E-2</v>
@@ -16303,8 +16313,8 @@
       <c r="O274" t="s">
         <v>0</v>
       </c>
-      <c r="P274" s="3">
-        <v>1.1389335966669E-2</v>
+      <c r="P274" s="6">
+        <v>1.7375952898874003E-2</v>
       </c>
       <c r="Q274" s="3">
         <v>0.13302867300808502</v>
@@ -16359,8 +16369,8 @@
       <c r="O275" t="s">
         <v>3</v>
       </c>
-      <c r="P275" s="3">
-        <v>1.06987015061577E-3</v>
+      <c r="P275" s="6">
+        <v>3.6585589405149204E-3</v>
       </c>
       <c r="Q275" s="3">
         <v>0.12878995202481799</v>
@@ -16415,8 +16425,8 @@
       <c r="O276" t="s">
         <v>0</v>
       </c>
-      <c r="P276" s="3">
-        <v>3.6762794170499607E-3</v>
+      <c r="P276" s="6">
+        <v>1.81274101487361E-2</v>
       </c>
       <c r="Q276" s="3">
         <v>0.14604794606566401</v>
@@ -16471,8 +16481,8 @@
       <c r="O277" t="s">
         <v>3</v>
       </c>
-      <c r="P277" s="3">
-        <v>8.1146968955182015E-4</v>
+      <c r="P277" s="6">
+        <v>2.6920157833956208E-3</v>
       </c>
       <c r="Q277" s="3">
         <v>0.15937129454687199</v>
@@ -16527,8 +16537,8 @@
       <c r="O278" t="s">
         <v>1</v>
       </c>
-      <c r="P278" s="3">
-        <v>1.1332071719607501E-3</v>
+      <c r="P278" s="6">
+        <v>5.5185586097649397E-3</v>
       </c>
       <c r="Q278" s="3">
         <v>0.11025671497918599</v>
@@ -16583,8 +16593,8 @@
       <c r="O279" t="s">
         <v>3</v>
       </c>
-      <c r="P279" s="3">
-        <v>1.4428735667024696E-3</v>
+      <c r="P279" s="6">
+        <v>1.1454061139374999E-2</v>
       </c>
       <c r="Q279" s="3">
         <v>0.20419503375887901</v>
@@ -16639,8 +16649,8 @@
       <c r="O280" t="s">
         <v>2</v>
       </c>
-      <c r="P280" s="3">
-        <v>1.7697514115297998E-3</v>
+      <c r="P280" s="6">
+        <v>1.8271917011588801E-2</v>
       </c>
       <c r="Q280" s="3">
         <v>0.11140505666844501</v>
@@ -16695,8 +16705,8 @@
       <c r="O281" t="s">
         <v>0</v>
       </c>
-      <c r="P281" s="3">
-        <v>9.4278147298609994E-3</v>
+      <c r="P281" s="6">
+        <v>3.2383885176386601E-2</v>
       </c>
       <c r="Q281" s="3">
         <v>0.17862850707024297</v>
@@ -16751,8 +16761,8 @@
       <c r="O282" t="s">
         <v>1</v>
       </c>
-      <c r="P282" s="3">
-        <v>1.8897715667662894E-3</v>
+      <c r="P282" s="6">
+        <v>7.6780153322033012E-3</v>
       </c>
       <c r="Q282" s="3">
         <v>3.0854485230520402E-2</v>
@@ -16807,8 +16817,8 @@
       <c r="O283" t="s">
         <v>2</v>
       </c>
-      <c r="P283" s="3">
-        <v>6.3882618678690007E-4</v>
+      <c r="P283" s="6">
+        <v>1.2097326456569097E-2</v>
       </c>
       <c r="Q283" s="3">
         <v>9.4765751622616815E-2</v>
@@ -16863,8 +16873,8 @@
       <c r="O284" t="s">
         <v>3</v>
       </c>
-      <c r="P284" s="3">
-        <v>8.3737147383544999E-4</v>
+      <c r="P284" s="6">
+        <v>7.187053663073999E-3</v>
       </c>
       <c r="Q284" s="3">
         <v>6.2170063378288704E-2</v>
@@ -16919,8 +16929,8 @@
       <c r="O285" t="s">
         <v>0</v>
       </c>
-      <c r="P285" s="3">
-        <v>4.6110427920211796E-3</v>
+      <c r="P285" s="6">
+        <v>3.3711556810885696E-2</v>
       </c>
       <c r="Q285" s="3">
         <v>0.155858161859215</v>
@@ -16975,8 +16985,8 @@
       <c r="O286" t="s">
         <v>1</v>
       </c>
-      <c r="P286" s="3">
-        <v>9.6268796369258997E-4</v>
+      <c r="P286" s="6">
+        <v>9.3274209066294012E-3</v>
       </c>
       <c r="Q286" s="3">
         <v>0.12134717451408501</v>
@@ -17031,8 +17041,8 @@
       <c r="O287" t="s">
         <v>0</v>
       </c>
-      <c r="P287" s="3">
-        <v>5.0061885303875897E-3</v>
+      <c r="P287" s="6">
+        <v>2.5619397638365599E-2</v>
       </c>
       <c r="Q287" s="3">
         <v>0.1025151961948714</v>
@@ -17087,8 +17097,8 @@
       <c r="O288" t="s">
         <v>2</v>
       </c>
-      <c r="P288" s="3">
-        <v>1.5896293743935495E-3</v>
+      <c r="P288" s="6">
+        <v>1.0931855242233699E-2</v>
       </c>
       <c r="Q288" s="3">
         <v>0.16183002293109902</v>
@@ -17143,8 +17153,8 @@
       <c r="O289" t="s">
         <v>1</v>
       </c>
-      <c r="P289" s="3">
-        <v>1.3608666205300306E-3</v>
+      <c r="P289" s="6">
+        <v>6.2002447666601006E-3</v>
       </c>
       <c r="Q289" s="3">
         <v>4.8275692039169309E-2</v>
@@ -17199,8 +17209,8 @@
       <c r="O290" t="s">
         <v>0</v>
       </c>
-      <c r="P290" s="3">
-        <v>8.3504026988521999E-3</v>
+      <c r="P290" s="6">
+        <v>1.40489653567784E-2</v>
       </c>
       <c r="Q290" s="3">
         <v>2.36561367055401E-2</v>
@@ -17255,8 +17265,8 @@
       <c r="O291" t="s">
         <v>1</v>
       </c>
-      <c r="P291" s="3">
-        <v>1.52511917985976E-3</v>
+      <c r="P291" s="6">
+        <v>4.9992364802165009E-3</v>
       </c>
       <c r="Q291" s="3">
         <v>0.168623789213598</v>
@@ -17311,8 +17321,8 @@
       <c r="O292" t="s">
         <v>1</v>
       </c>
-      <c r="P292" s="3">
-        <v>5.8725546341519995E-4</v>
+      <c r="P292" s="6">
+        <v>5.1557437473092986E-3</v>
       </c>
       <c r="Q292" s="3">
         <v>0.10066858830396039</v>
@@ -17367,8 +17377,8 @@
       <c r="O293" t="s">
         <v>0</v>
       </c>
-      <c r="P293" s="3">
-        <v>2.12108208779683E-3</v>
+      <c r="P293" s="6">
+        <v>2.0115908584557501E-2</v>
       </c>
       <c r="Q293" s="3">
         <v>0.13800344918854501</v>
@@ -17423,8 +17433,8 @@
       <c r="O294" t="s">
         <v>3</v>
       </c>
-      <c r="P294" s="3">
-        <v>1.9329499336890798E-3</v>
+      <c r="P294" s="6">
+        <v>4.7415099979843597E-3</v>
       </c>
       <c r="Q294" s="3">
         <v>6.6622314509004105E-2</v>
@@ -17479,8 +17489,8 @@
       <c r="O295" t="s">
         <v>3</v>
       </c>
-      <c r="P295" s="3">
-        <v>1.4479340925390698E-3</v>
+      <c r="P295" s="6">
+        <v>7.1441861800849975E-3</v>
       </c>
       <c r="Q295" s="3">
         <v>0.21880831755697697</v>
@@ -17535,8 +17545,8 @@
       <c r="O296" t="s">
         <v>1</v>
       </c>
-      <c r="P296" s="3">
-        <v>1.2324539893597804E-3</v>
+      <c r="P296" s="6">
+        <v>5.6775587872834113E-3</v>
       </c>
       <c r="Q296" s="3">
         <v>8.8698567589744315E-2</v>
@@ -17591,8 +17601,8 @@
       <c r="O297" t="s">
         <v>0</v>
       </c>
-      <c r="P297" s="3">
-        <v>7.728765951469499E-3</v>
+      <c r="P297" s="6">
+        <v>1.6423142515122901E-2</v>
       </c>
       <c r="Q297" s="3">
         <v>0.16054435074329401</v>
@@ -17647,8 +17657,8 @@
       <c r="O298" t="s">
         <v>1</v>
       </c>
-      <c r="P298" s="3">
-        <v>1.1549877744840898E-3</v>
+      <c r="P298" s="6">
+        <v>6.3734978321007985E-3</v>
       </c>
       <c r="Q298" s="3">
         <v>7.5101473834365398E-2</v>
@@ -17703,8 +17713,8 @@
       <c r="O299" t="s">
         <v>2</v>
       </c>
-      <c r="P299" s="3">
-        <v>4.6945564972701494E-3</v>
+      <c r="P299" s="6">
+        <v>1.31888182950207E-2</v>
       </c>
       <c r="Q299" s="3">
         <v>9.1949309688060685E-2</v>
@@ -17759,8 +17769,8 @@
       <c r="O300" t="s">
         <v>0</v>
       </c>
-      <c r="P300" s="3">
-        <v>9.3914758763276006E-3</v>
+      <c r="P300" s="6">
+        <v>1.6120320302434304E-2</v>
       </c>
       <c r="Q300" s="3">
         <v>0.14466096088290201</v>
@@ -17815,8 +17825,8 @@
       <c r="O301" t="s">
         <v>2</v>
       </c>
-      <c r="P301" s="3">
-        <v>5.4646980133839004E-3</v>
+      <c r="P301" s="6">
+        <v>1.23173174797557E-2</v>
       </c>
       <c r="Q301" s="3">
         <v>0.28279406018555198</v>
@@ -17871,8 +17881,8 @@
       <c r="O302" t="s">
         <v>3</v>
       </c>
-      <c r="P302" s="3">
-        <v>2.0215071563143309E-3</v>
+      <c r="P302" s="6">
+        <v>2.2823284962214495E-3</v>
       </c>
       <c r="Q302" s="3">
         <v>9.5399242360144201E-2</v>
@@ -17927,8 +17937,8 @@
       <c r="O303" t="s">
         <v>1</v>
       </c>
-      <c r="P303" s="3">
-        <v>4.3581619975156995E-3</v>
+      <c r="P303" s="6">
+        <v>8.7286097113975017E-3</v>
       </c>
       <c r="Q303" s="3">
         <v>3.1169361958745895E-2</v>
@@ -17983,8 +17993,8 @@
       <c r="O304" t="s">
         <v>0</v>
       </c>
-      <c r="P304" s="3">
-        <v>3.1626908548787504E-3</v>
+      <c r="P304" s="6">
+        <v>1.2878593464847599E-2</v>
       </c>
       <c r="Q304" s="3">
         <v>0.15953499730676401</v>
@@ -18039,8 +18049,8 @@
       <c r="O305" t="s">
         <v>3</v>
       </c>
-      <c r="P305" s="3">
-        <v>6.1768087325618001E-3</v>
+      <c r="P305" s="6">
+        <v>7.3157227598131015E-3</v>
       </c>
       <c r="Q305" s="3">
         <v>0.1094754068180913</v>
@@ -18095,8 +18105,8 @@
       <c r="O306" t="s">
         <v>2</v>
       </c>
-      <c r="P306" s="3">
-        <v>1.3870861027953599E-3</v>
+      <c r="P306" s="6">
+        <v>1.3943620608188202E-2</v>
       </c>
       <c r="Q306" s="3">
         <v>8.5570560302584711E-2</v>
@@ -18151,8 +18161,8 @@
       <c r="O307" t="s">
         <v>2</v>
       </c>
-      <c r="P307" s="3">
-        <v>3.8950659909460289E-3</v>
+      <c r="P307" s="6">
+        <v>2.0387477299664204E-2</v>
       </c>
       <c r="Q307" s="3">
         <v>0.14584527770057298</v>
@@ -18207,8 +18217,8 @@
       <c r="O308" t="s">
         <v>0</v>
       </c>
-      <c r="P308" s="3">
-        <v>4.4133463088655792E-3</v>
+      <c r="P308" s="6">
+        <v>2.5243577547371401E-2</v>
       </c>
       <c r="Q308" s="3">
         <v>0.11715010041370981</v>
@@ -18263,8 +18273,8 @@
       <c r="O309" t="s">
         <v>1</v>
       </c>
-      <c r="P309" s="3">
-        <v>8.9948080494650987E-4</v>
+      <c r="P309" s="6">
+        <v>1.0785826758365102E-2</v>
       </c>
       <c r="Q309" s="3">
         <v>9.7294879844411999E-2</v>
@@ -18319,8 +18329,8 @@
       <c r="O310" t="s">
         <v>3</v>
       </c>
-      <c r="P310" s="3">
-        <v>2.2206053945410505E-3</v>
+      <c r="P310" s="6">
+        <v>2.9341897752601593E-3</v>
       </c>
       <c r="Q310" s="3">
         <v>0.125133444555104</v>
@@ -18375,8 +18385,8 @@
       <c r="O311" t="s">
         <v>1</v>
       </c>
-      <c r="P311" s="3">
-        <v>1.6637737280689197E-3</v>
+      <c r="P311" s="6">
+        <v>4.3599012205958795E-3</v>
       </c>
       <c r="Q311" s="3">
         <v>8.802765177097141E-2</v>
@@ -18431,8 +18441,8 @@
       <c r="O312" t="s">
         <v>2</v>
       </c>
-      <c r="P312" s="3">
-        <v>4.3277705699438212E-3</v>
+      <c r="P312" s="6">
+        <v>8.9931927795987004E-3</v>
       </c>
       <c r="Q312" s="3">
         <v>7.7807092107831599E-2</v>
@@ -18487,8 +18497,8 @@
       <c r="O313" t="s">
         <v>3</v>
       </c>
-      <c r="P313" s="3">
-        <v>6.9472527684410991E-4</v>
+      <c r="P313" s="6">
+        <v>8.7163512798724974E-3</v>
       </c>
       <c r="Q313" s="3">
         <v>0.16933441720902898</v>
@@ -18543,8 +18553,8 @@
       <c r="O314" t="s">
         <v>1</v>
       </c>
-      <c r="P314" s="3">
-        <v>3.01220820983868E-3</v>
+      <c r="P314" s="6">
+        <v>4.9440570692239807E-3</v>
       </c>
       <c r="Q314" s="3">
         <v>7.9577412689104093E-2</v>
@@ -18599,8 +18609,8 @@
       <c r="O315" t="s">
         <v>3</v>
       </c>
-      <c r="P315" s="3">
-        <v>8.2413520669887995E-4</v>
+      <c r="P315" s="6">
+        <v>6.1717800999758991E-3</v>
       </c>
       <c r="Q315" s="3">
         <v>0.10060011339373809</v>
@@ -18655,8 +18665,8 @@
       <c r="O316" t="s">
         <v>1</v>
       </c>
-      <c r="P316" s="3">
-        <v>9.9478561776323009E-4</v>
+      <c r="P316" s="6">
+        <v>7.3702826339286012E-3</v>
       </c>
       <c r="Q316" s="3">
         <v>0.120839022565633</v>
@@ -18711,8 +18721,8 @@
       <c r="O317" t="s">
         <v>3</v>
       </c>
-      <c r="P317" s="3">
-        <v>1.7762631759978796E-3</v>
+      <c r="P317" s="6">
+        <v>4.7693976448499199E-3</v>
       </c>
       <c r="Q317" s="3">
         <v>0.1334981024265281</v>
@@ -18767,8 +18777,8 @@
       <c r="O318" t="s">
         <v>2</v>
       </c>
-      <c r="P318" s="3">
-        <v>2.3766476488162802E-3</v>
+      <c r="P318" s="6">
+        <v>1.4627843978814798E-2</v>
       </c>
       <c r="Q318" s="3">
         <v>9.8120623966678991E-2</v>
@@ -18823,8 +18833,8 @@
       <c r="O319" t="s">
         <v>3</v>
       </c>
-      <c r="P319" s="3">
-        <v>1.5104453423191505E-3</v>
+      <c r="P319" s="6">
+        <v>2.7086707996203706E-3</v>
       </c>
       <c r="Q319" s="3">
         <v>0.10042402672115799</v>
@@ -18879,8 +18889,8 @@
       <c r="O320" t="s">
         <v>0</v>
       </c>
-      <c r="P320" s="3">
-        <v>2.9261832878546608E-3</v>
+      <c r="P320" s="6">
+        <v>8.9751064660958217E-3</v>
       </c>
       <c r="Q320" s="3">
         <v>6.9579494884237106E-2</v>
@@ -18935,8 +18945,8 @@
       <c r="O321" t="s">
         <v>3</v>
       </c>
-      <c r="P321" s="3">
-        <v>8.8405185965712051E-4</v>
+      <c r="P321" s="6">
+        <v>4.7789087402634982E-3</v>
       </c>
       <c r="Q321" s="3">
         <v>0.206110010854899</v>
@@ -18991,8 +19001,8 @@
       <c r="O322" t="s">
         <v>2</v>
       </c>
-      <c r="P322" s="3">
-        <v>1.1885965941473898E-3</v>
+      <c r="P322" s="6">
+        <v>8.2636452862061005E-3</v>
       </c>
       <c r="Q322" s="3">
         <v>0.10778726474382</v>
@@ -19047,8 +19057,8 @@
       <c r="O323" t="s">
         <v>0</v>
       </c>
-      <c r="P323" s="3">
-        <v>3.3931719408428797E-3</v>
+      <c r="P323" s="6">
+        <v>1.6171997529454498E-2</v>
       </c>
       <c r="Q323" s="3">
         <v>0.17030701087787703</v>
@@ -19103,8 +19113,8 @@
       <c r="O324" t="s">
         <v>3</v>
       </c>
-      <c r="P324" s="3">
-        <v>3.7007552455179012E-3</v>
+      <c r="P324" s="6">
+        <v>5.0479036872275E-3</v>
       </c>
       <c r="Q324" s="3">
         <v>9.7816721536218412E-2</v>
@@ -19159,8 +19169,8 @@
       <c r="O325" t="s">
         <v>3</v>
       </c>
-      <c r="P325" s="3">
-        <v>1.7296284022449903E-3</v>
+      <c r="P325" s="6">
+        <v>3.6697257019113697E-3</v>
       </c>
       <c r="Q325" s="3">
         <v>0.15227501327171999</v>
@@ -19215,8 +19225,8 @@
       <c r="O326" t="s">
         <v>0</v>
       </c>
-      <c r="P326" s="3">
-        <v>2.0740204254252599E-3</v>
+      <c r="P326" s="6">
+        <v>1.08419048483484E-2</v>
       </c>
       <c r="Q326" s="3">
         <v>0.15807578573003403</v>
@@ -19271,8 +19281,8 @@
       <c r="O327" t="s">
         <v>1</v>
       </c>
-      <c r="P327" s="3">
-        <v>1.0254125436404099E-3</v>
+      <c r="P327" s="6">
+        <v>6.4261656953021988E-3</v>
       </c>
       <c r="Q327" s="3">
         <v>8.9370703557505884E-2</v>
@@ -19327,8 +19337,8 @@
       <c r="O328" t="s">
         <v>2</v>
       </c>
-      <c r="P328" s="3">
-        <v>1.0267791922160502E-3</v>
+      <c r="P328" s="6">
+        <v>1.4536969072651101E-2</v>
       </c>
       <c r="Q328" s="3">
         <v>0.18771176412701601</v>
@@ -19383,8 +19393,8 @@
       <c r="O329" t="s">
         <v>2</v>
       </c>
-      <c r="P329" s="3">
-        <v>1.1368014304480403E-3</v>
+      <c r="P329" s="6">
+        <v>1.5864791697822504E-2</v>
       </c>
       <c r="Q329" s="3">
         <v>0.15544172190129696</v>
@@ -19439,8 +19449,8 @@
       <c r="O330" t="s">
         <v>3</v>
       </c>
-      <c r="P330" s="3">
-        <v>1.6964907921419598E-3</v>
+      <c r="P330" s="6">
+        <v>5.2135433070360799E-3</v>
       </c>
       <c r="Q330" s="3">
         <v>0.10801900923252009</v>
@@ -19495,8 +19505,8 @@
       <c r="O331" t="s">
         <v>3</v>
       </c>
-      <c r="P331" s="3">
-        <v>8.9730874537962985E-4</v>
+      <c r="P331" s="6">
+        <v>3.3858426377264602E-3</v>
       </c>
       <c r="Q331" s="3">
         <v>0.11554602580144908</v>
@@ -19551,8 +19561,8 @@
       <c r="O332" t="s">
         <v>2</v>
       </c>
-      <c r="P332" s="3">
-        <v>5.1476566586643405E-3</v>
+      <c r="P332" s="6">
+        <v>7.3168912495020499E-3</v>
       </c>
       <c r="Q332" s="3">
         <v>7.5882041477597889E-2</v>
@@ -19607,8 +19617,8 @@
       <c r="O333" t="s">
         <v>3</v>
       </c>
-      <c r="P333" s="3">
-        <v>1.6345722824553403E-3</v>
+      <c r="P333" s="6">
+        <v>4.5189321390353109E-3</v>
       </c>
       <c r="Q333" s="3">
         <v>0.10435186931863429</v>
@@ -19663,8 +19673,8 @@
       <c r="O334" t="s">
         <v>0</v>
       </c>
-      <c r="P334" s="3">
-        <v>4.0450159776810306E-3</v>
+      <c r="P334" s="6">
+        <v>2.1017597871832501E-2</v>
       </c>
       <c r="Q334" s="3">
         <v>8.3016986725851685E-2</v>
@@ -19719,8 +19729,8 @@
       <c r="O335" t="s">
         <v>0</v>
       </c>
-      <c r="P335" s="3">
-        <v>2.71482901416675E-3</v>
+      <c r="P335" s="6">
+        <v>1.63167534628883E-2</v>
       </c>
       <c r="Q335" s="3">
         <v>9.3880935572088001E-2</v>
@@ -19775,8 +19785,8 @@
       <c r="O336" t="s">
         <v>1</v>
       </c>
-      <c r="P336" s="3">
-        <v>1.1533366996445702E-3</v>
+      <c r="P336" s="6">
+        <v>6.1969668604434005E-3</v>
       </c>
       <c r="Q336" s="3">
         <v>0.17864891793578802</v>
@@ -19831,8 +19841,8 @@
       <c r="O337" t="s">
         <v>3</v>
       </c>
-      <c r="P337" s="3">
-        <v>1.0377681435329599E-3</v>
+      <c r="P337" s="6">
+        <v>6.5782385354395002E-3</v>
       </c>
       <c r="Q337" s="3">
         <v>9.9231603788212011E-2</v>
@@ -19887,8 +19897,8 @@
       <c r="O338" t="s">
         <v>3</v>
       </c>
-      <c r="P338" s="3">
-        <v>7.8164306984262978E-4</v>
+      <c r="P338" s="6">
+        <v>4.1960417074732997E-3</v>
       </c>
       <c r="Q338" s="3">
         <v>0.14182722149416802</v>
@@ -19943,8 +19953,8 @@
       <c r="O339" t="s">
         <v>0</v>
       </c>
-      <c r="P339" s="3">
-        <v>2.2732313200322101E-3</v>
+      <c r="P339" s="6">
+        <v>1.43510374473408E-2</v>
       </c>
       <c r="Q339" s="3">
         <v>0.12666789581999199</v>
@@ -19999,8 +20009,8 @@
       <c r="O340" t="s">
         <v>3</v>
       </c>
-      <c r="P340" s="3">
-        <v>1.6680481421644799E-3</v>
+      <c r="P340" s="6">
+        <v>4.9811056278485314E-3</v>
       </c>
       <c r="Q340" s="3">
         <v>9.2642865842207392E-2</v>
@@ -20055,8 +20065,8 @@
       <c r="O341" t="s">
         <v>0</v>
       </c>
-      <c r="P341" s="3">
-        <v>7.11027110810391E-3</v>
+      <c r="P341" s="6">
+        <v>2.49374285340309E-2</v>
       </c>
       <c r="Q341" s="3">
         <v>5.9655046905390405E-2</v>
@@ -20111,8 +20121,8 @@
       <c r="O342" t="s">
         <v>2</v>
       </c>
-      <c r="P342" s="3">
-        <v>2.4102893366944001E-3</v>
+      <c r="P342" s="6">
+        <v>8.4872452425771017E-3</v>
       </c>
       <c r="Q342" s="3">
         <v>9.5082738203926903E-2</v>
@@ -20167,8 +20177,8 @@
       <c r="O343" t="s">
         <v>1</v>
       </c>
-      <c r="P343" s="3">
-        <v>2.8373599634505106E-3</v>
+      <c r="P343" s="6">
+        <v>6.5574382897466005E-3</v>
       </c>
       <c r="Q343" s="3">
         <v>5.0134264747612199E-2</v>
@@ -20223,8 +20233,8 @@
       <c r="O344" t="s">
         <v>0</v>
       </c>
-      <c r="P344" s="3">
-        <v>8.3724574651568399E-3</v>
+      <c r="P344" s="6">
+        <v>1.3878537836717402E-2</v>
       </c>
       <c r="Q344" s="3">
         <v>0.14401366561651202</v>
@@ -20279,8 +20289,8 @@
       <c r="O345" t="s">
         <v>3</v>
       </c>
-      <c r="P345" s="3">
-        <v>2.6471010060048995E-3</v>
+      <c r="P345" s="6">
+        <v>4.4154409551992397E-3</v>
       </c>
       <c r="Q345" s="3">
         <v>0.1123020504601296</v>
@@ -20335,8 +20345,8 @@
       <c r="O346" t="s">
         <v>0</v>
       </c>
-      <c r="P346" s="3">
-        <v>5.6330164625250506E-3</v>
+      <c r="P346" s="6">
+        <v>1.44885066911229E-2</v>
       </c>
       <c r="Q346" s="3">
         <v>9.0075721614993387E-2</v>
@@ -20391,8 +20401,8 @@
       <c r="O347" t="s">
         <v>1</v>
       </c>
-      <c r="P347" s="3">
-        <v>2.8713764622807503E-3</v>
+      <c r="P347" s="6">
+        <v>6.5974501630989019E-3</v>
       </c>
       <c r="Q347" s="3">
         <v>0.14117500837892299</v>
@@ -20447,8 +20457,8 @@
       <c r="O348" t="s">
         <v>0</v>
       </c>
-      <c r="P348" s="3">
-        <v>2.7771946970460704E-3</v>
+      <c r="P348" s="6">
+        <v>1.2207035186293099E-2</v>
       </c>
       <c r="Q348" s="3">
         <v>8.4339614491909506E-2</v>
@@ -20503,8 +20513,8 @@
       <c r="O349" t="s">
         <v>1</v>
       </c>
-      <c r="P349" s="3">
-        <v>6.8296230847408965E-4</v>
+      <c r="P349" s="6">
+        <v>9.0679015847854993E-3</v>
       </c>
       <c r="Q349" s="3">
         <v>9.8468628129921118E-2</v>
@@ -20559,8 +20569,8 @@
       <c r="O350" t="s">
         <v>3</v>
       </c>
-      <c r="P350" s="3">
-        <v>1.6181748942472101E-3</v>
+      <c r="P350" s="6">
+        <v>3.473587421467441E-3</v>
       </c>
       <c r="Q350" s="3">
         <v>9.6548742614685601E-2</v>
@@ -20615,8 +20625,8 @@
       <c r="O351" t="s">
         <v>2</v>
       </c>
-      <c r="P351" s="3">
-        <v>8.3075465818183017E-4</v>
+      <c r="P351" s="6">
+        <v>8.7544376438016998E-3</v>
       </c>
       <c r="Q351" s="3">
         <v>0.1122732507064938</v>
@@ -20671,8 +20681,8 @@
       <c r="O352" t="s">
         <v>1</v>
       </c>
-      <c r="P352" s="3">
-        <v>1.8658172339200895E-3</v>
+      <c r="P352" s="6">
+        <v>5.5039624712662494E-3</v>
       </c>
       <c r="Q352" s="3">
         <v>0.14440553169697498</v>
@@ -20727,8 +20737,8 @@
       <c r="O353" t="s">
         <v>0</v>
       </c>
-      <c r="P353" s="3">
-        <v>4.6649210125906402E-3</v>
+      <c r="P353" s="6">
+        <v>1.4777390344534101E-2</v>
       </c>
       <c r="Q353" s="3">
         <v>8.3947540028020406E-2</v>
@@ -20783,8 +20793,8 @@
       <c r="O354" t="s">
         <v>0</v>
       </c>
-      <c r="P354" s="3">
-        <v>1.0770545224659199E-2</v>
+      <c r="P354" s="6">
+        <v>1.2940519838593898E-2</v>
       </c>
       <c r="Q354" s="3">
         <v>0.168634487781674</v>
@@ -20839,8 +20849,8 @@
       <c r="O355" t="s">
         <v>2</v>
       </c>
-      <c r="P355" s="3">
-        <v>3.1885294301901004E-3</v>
+      <c r="P355" s="6">
+        <v>8.8538217241875983E-3</v>
       </c>
       <c r="Q355" s="3">
         <v>0.144486138597131</v>
@@ -20895,8 +20905,8 @@
       <c r="O356" t="s">
         <v>0</v>
       </c>
-      <c r="P356" s="3">
-        <v>2.0344993332400897E-2</v>
+      <c r="P356" s="6">
+        <v>2.2919956129044301E-2</v>
       </c>
       <c r="Q356" s="3">
         <v>5.7961751008405601E-2</v>
@@ -20951,8 +20961,8 @@
       <c r="O357" t="s">
         <v>3</v>
       </c>
-      <c r="P357" s="3">
-        <v>4.1126018040813991E-3</v>
+      <c r="P357" s="6">
+        <v>3.5338826419319697E-3</v>
       </c>
       <c r="Q357" s="3">
         <v>0.11368630174547401</v>
@@ -21007,8 +21017,8 @@
       <c r="O358" t="s">
         <v>0</v>
       </c>
-      <c r="P358" s="3">
-        <v>4.6759888937230711E-3</v>
+      <c r="P358" s="6">
+        <v>1.07806984742638E-2</v>
       </c>
       <c r="Q358" s="3">
         <v>0.114385305671021</v>
@@ -21063,8 +21073,8 @@
       <c r="O359" t="s">
         <v>0</v>
       </c>
-      <c r="P359" s="3">
-        <v>6.6083848305424093E-3</v>
+      <c r="P359" s="6">
+        <v>2.2353638079948699E-2</v>
       </c>
       <c r="Q359" s="3">
         <v>0.1094410698860883</v>
@@ -21119,8 +21129,8 @@
       <c r="O360" t="s">
         <v>0</v>
       </c>
-      <c r="P360" s="3">
-        <v>4.5170317898737197E-3</v>
+      <c r="P360" s="6">
+        <v>3.1333346618339405E-2</v>
       </c>
       <c r="Q360" s="3">
         <v>0.151920589618385</v>
@@ -21175,8 +21185,8 @@
       <c r="O361" t="s">
         <v>1</v>
       </c>
-      <c r="P361" s="3">
-        <v>1.7288456531332503E-3</v>
+      <c r="P361" s="6">
+        <v>9.0339488815515991E-3</v>
       </c>
       <c r="Q361" s="3">
         <v>0.11749381385743599</v>
@@ -21231,8 +21241,8 @@
       <c r="O362" t="s">
         <v>1</v>
       </c>
-      <c r="P362" s="3">
-        <v>1.4576416017462197E-3</v>
+      <c r="P362" s="6">
+        <v>1.2907501659356103E-2</v>
       </c>
       <c r="Q362" s="3">
         <v>0.11172112647909599</v>
@@ -21287,8 +21297,8 @@
       <c r="O363" t="s">
         <v>3</v>
       </c>
-      <c r="P363" s="3">
-        <v>8.4333411632542005E-4</v>
+      <c r="P363" s="6">
+        <v>9.5374430529773027E-3</v>
       </c>
       <c r="Q363" s="3">
         <v>0.12852848647162268</v>
@@ -21343,8 +21353,8 @@
       <c r="O364" t="s">
         <v>0</v>
       </c>
-      <c r="P364" s="3">
-        <v>3.5223035483795693E-3</v>
+      <c r="P364" s="6">
+        <v>1.7823927220888401E-2</v>
       </c>
       <c r="Q364" s="3">
         <v>9.7074198303743489E-2</v>
@@ -21399,8 +21409,8 @@
       <c r="O365" t="s">
         <v>3</v>
       </c>
-      <c r="P365" s="3">
-        <v>1.6072112193796801E-3</v>
+      <c r="P365" s="6">
+        <v>3.3006900412146205E-3</v>
       </c>
       <c r="Q365" s="3">
         <v>0.1242474154569205</v>
@@ -21455,8 +21465,8 @@
       <c r="O366" t="s">
         <v>2</v>
       </c>
-      <c r="P366" s="3">
-        <v>2.7264199597993796E-3</v>
+      <c r="P366" s="6">
+        <v>8.9153833396267007E-3</v>
       </c>
       <c r="Q366" s="3">
         <v>9.8288098815828395E-2</v>
@@ -21511,8 +21521,8 @@
       <c r="O367" t="s">
         <v>0</v>
       </c>
-      <c r="P367" s="3">
-        <v>4.3369529848860111E-3</v>
+      <c r="P367" s="6">
+        <v>1.5613276867952599E-2</v>
       </c>
       <c r="Q367" s="3">
         <v>4.4843925861641799E-2</v>
@@ -21567,8 +21577,8 @@
       <c r="O368" t="s">
         <v>0</v>
       </c>
-      <c r="P368" s="3">
-        <v>9.9723657476716004E-3</v>
+      <c r="P368" s="6">
+        <v>2.4875768111087399E-2</v>
       </c>
       <c r="Q368" s="3">
         <v>0.14590702112764101</v>
@@ -21623,8 +21633,8 @@
       <c r="O369" t="s">
         <v>1</v>
       </c>
-      <c r="P369" s="3">
-        <v>2.9005863179918101E-3</v>
+      <c r="P369" s="6">
+        <v>1.5916582779027497E-2</v>
       </c>
       <c r="Q369" s="3">
         <v>0.168677860405296</v>
@@ -21679,8 +21689,8 @@
       <c r="O370" t="s">
         <v>0</v>
       </c>
-      <c r="P370" s="3">
-        <v>8.4489102009683119E-3</v>
+      <c r="P370" s="6">
+        <v>1.39710125513375E-2</v>
       </c>
       <c r="Q370" s="3">
         <v>8.6084663867950495E-2</v>
@@ -21735,8 +21745,8 @@
       <c r="O371" t="s">
         <v>3</v>
       </c>
-      <c r="P371" s="3">
-        <v>2.6431663718539588E-3</v>
+      <c r="P371" s="6">
+        <v>4.4634737423620494E-3</v>
       </c>
       <c r="Q371" s="3">
         <v>8.3162265364080695E-2</v>
@@ -21791,8 +21801,8 @@
       <c r="O372" t="s">
         <v>3</v>
       </c>
-      <c r="P372" s="3">
-        <v>3.9186765789054993E-3</v>
+      <c r="P372" s="6">
+        <v>5.811600771267E-3</v>
       </c>
       <c r="Q372" s="3">
         <v>8.0034061800688505E-2</v>
@@ -21847,8 +21857,8 @@
       <c r="O373" t="s">
         <v>3</v>
       </c>
-      <c r="P373" s="3">
-        <v>1.4808703763264895E-3</v>
+      <c r="P373" s="6">
+        <v>4.3622157973005008E-3</v>
       </c>
       <c r="Q373" s="3">
         <v>0.114041425986215</v>
@@ -21903,8 +21913,8 @@
       <c r="O374" t="s">
         <v>3</v>
       </c>
-      <c r="P374" s="3">
-        <v>1.6663074493408194E-3</v>
+      <c r="P374" s="6">
+        <v>3.4400613239995203E-3</v>
       </c>
       <c r="Q374" s="3">
         <v>8.2725857384502721E-2</v>
@@ -21959,8 +21969,8 @@
       <c r="O375" t="s">
         <v>3</v>
       </c>
-      <c r="P375" s="3">
-        <v>1.0518121183053998E-3</v>
+      <c r="P375" s="6">
+        <v>4.4008575496263594E-3</v>
       </c>
       <c r="Q375" s="3">
         <v>0.18785604555159799</v>
@@ -22015,8 +22025,8 @@
       <c r="O376" t="s">
         <v>3</v>
       </c>
-      <c r="P376" s="3">
-        <v>9.2726272913523991E-4</v>
+      <c r="P376" s="6">
+        <v>2.7470229251775396E-3</v>
       </c>
       <c r="Q376" s="3">
         <v>0.11379966372623948</v>
@@ -22071,8 +22081,8 @@
       <c r="O377" t="s">
         <v>0</v>
       </c>
-      <c r="P377" s="3">
-        <v>3.7567587787634693E-3</v>
+      <c r="P377" s="6">
+        <v>1.1342187266564E-2</v>
       </c>
       <c r="Q377" s="3">
         <v>0.14610239444300599</v>
@@ -22127,8 +22137,8 @@
       <c r="O378" t="s">
         <v>3</v>
       </c>
-      <c r="P378" s="3">
-        <v>2.3986377054825408E-3</v>
+      <c r="P378" s="6">
+        <v>5.7234397681896008E-3</v>
       </c>
       <c r="Q378" s="3">
         <v>0.16866779746487698</v>
@@ -22183,8 +22193,8 @@
       <c r="O379" t="s">
         <v>3</v>
       </c>
-      <c r="P379" s="3">
-        <v>2.1917814156040497E-3</v>
+      <c r="P379" s="6">
+        <v>2.1804395219078201E-3</v>
       </c>
       <c r="Q379" s="3">
         <v>7.4059509672223606E-2</v>
@@ -22239,8 +22249,8 @@
       <c r="O380" t="s">
         <v>2</v>
       </c>
-      <c r="P380" s="3">
-        <v>3.4755338056129395E-3</v>
+      <c r="P380" s="6">
+        <v>1.15458957734518E-2</v>
       </c>
       <c r="Q380" s="3">
         <v>0.16541917994618399</v>
@@ -22295,8 +22305,8 @@
       <c r="O381" t="s">
         <v>2</v>
       </c>
-      <c r="P381" s="3">
-        <v>1.1084517427662E-3</v>
+      <c r="P381" s="6">
+        <v>7.901654316810898E-3</v>
       </c>
       <c r="Q381" s="3">
         <v>0.13123538601212298</v>
@@ -22351,8 +22361,8 @@
       <c r="O382" t="s">
         <v>2</v>
       </c>
-      <c r="P382" s="3">
-        <v>1.6298794280373802E-3</v>
+      <c r="P382" s="6">
+        <v>1.4245646190829599E-2</v>
       </c>
       <c r="Q382" s="3">
         <v>0.24516751058399699</v>
@@ -22407,8 +22417,8 @@
       <c r="O383" t="s">
         <v>1</v>
       </c>
-      <c r="P383" s="3">
-        <v>4.3176459148526001E-3</v>
+      <c r="P383" s="6">
+        <v>7.0740201044827995E-3</v>
       </c>
       <c r="Q383" s="3">
         <v>5.5466418154537699E-2</v>
@@ -22463,8 +22473,8 @@
       <c r="O384" t="s">
         <v>1</v>
       </c>
-      <c r="P384" s="3">
-        <v>1.7113044013967703E-3</v>
+      <c r="P384" s="6">
+        <v>5.3108074062038196E-3</v>
       </c>
       <c r="Q384" s="3">
         <v>0.1361503941006956</v>
@@ -22519,8 +22529,8 @@
       <c r="O385" t="s">
         <v>3</v>
       </c>
-      <c r="P385" s="3">
-        <v>1.6387018968089303E-3</v>
+      <c r="P385" s="6">
+        <v>3.8789129175710816E-3</v>
       </c>
       <c r="Q385" s="3">
         <v>0.17416512919589899</v>
@@ -22575,8 +22585,8 @@
       <c r="O386" t="s">
         <v>2</v>
       </c>
-      <c r="P386" s="3">
-        <v>2.4107374993036501E-3</v>
+      <c r="P386" s="6">
+        <v>1.5559596824459704E-2</v>
       </c>
       <c r="Q386" s="3">
         <v>9.5168047584592505E-2</v>
@@ -22631,8 +22641,8 @@
       <c r="O387" t="s">
         <v>1</v>
       </c>
-      <c r="P387" s="3">
-        <v>1.6515644019818899E-3</v>
+      <c r="P387" s="6">
+        <v>7.9361661046277992E-3</v>
       </c>
       <c r="Q387" s="3">
         <v>7.0275968755595206E-2</v>
@@ -22687,8 +22697,8 @@
       <c r="O388" t="s">
         <v>1</v>
       </c>
-      <c r="P388" s="3">
-        <v>1.0183571678226097E-3</v>
+      <c r="P388" s="6">
+        <v>9.5696768257767014E-3</v>
       </c>
       <c r="Q388" s="3">
         <v>0.151059614494443</v>
@@ -22743,8 +22753,8 @@
       <c r="O389" t="s">
         <v>0</v>
       </c>
-      <c r="P389" s="3">
-        <v>4.4385324581525491E-3</v>
+      <c r="P389" s="6">
+        <v>3.3970499876886592E-2</v>
       </c>
       <c r="Q389" s="3">
         <v>5.599312088452249E-2</v>
@@ -22799,8 +22809,8 @@
       <c r="O390" t="s">
         <v>2</v>
       </c>
-      <c r="P390" s="3">
-        <v>1.2853760729285603E-3</v>
+      <c r="P390" s="6">
+        <v>1.4097084989771202E-2</v>
       </c>
       <c r="Q390" s="3">
         <v>0.14444359997287398</v>
@@ -22855,8 +22865,8 @@
       <c r="O391" t="s">
         <v>1</v>
       </c>
-      <c r="P391" s="3">
-        <v>1.35827518965925E-3</v>
+      <c r="P391" s="6">
+        <v>1.1342241195961899E-2</v>
       </c>
       <c r="Q391" s="3">
         <v>0.1244655037298798</v>
@@ -22911,8 +22921,8 @@
       <c r="O392" t="s">
         <v>2</v>
       </c>
-      <c r="P392" s="3">
-        <v>2.5807775327848503E-3</v>
+      <c r="P392" s="6">
+        <v>1.4588901482056799E-2</v>
       </c>
       <c r="Q392" s="3">
         <v>9.7584704402833289E-2</v>
@@ -22967,8 +22977,8 @@
       <c r="O393" t="s">
         <v>0</v>
       </c>
-      <c r="P393" s="3">
-        <v>1.7884593398775897E-3</v>
+      <c r="P393" s="6">
+        <v>1.6170448041520999E-2</v>
       </c>
       <c r="Q393" s="3">
         <v>0.13746732380241097</v>
@@ -23023,8 +23033,8 @@
       <c r="O394" t="s">
         <v>2</v>
       </c>
-      <c r="P394" s="3">
-        <v>4.78082563495256E-3</v>
+      <c r="P394" s="6">
+        <v>7.0886853791307207E-3</v>
       </c>
       <c r="Q394" s="3">
         <v>0.10330011649057219</v>
@@ -23079,8 +23089,8 @@
       <c r="O395" t="s">
         <v>2</v>
       </c>
-      <c r="P395" s="3">
-        <v>2.44006825960241E-3</v>
+      <c r="P395" s="6">
+        <v>6.5798626019386002E-3</v>
       </c>
       <c r="Q395" s="3">
         <v>8.5795020218938506E-2</v>
@@ -23135,8 +23145,8 @@
       <c r="O396" t="s">
         <v>0</v>
       </c>
-      <c r="P396" s="3">
-        <v>2.7344786371941202E-3</v>
+      <c r="P396" s="6">
+        <v>2.5327165378257698E-2</v>
       </c>
       <c r="Q396" s="3">
         <v>0.12746525555849098</v>
@@ -23191,8 +23201,8 @@
       <c r="O397" t="s">
         <v>0</v>
       </c>
-      <c r="P397" s="3">
-        <v>3.5919814663429896E-3</v>
+      <c r="P397" s="6">
+        <v>2.6711572310887301E-2</v>
       </c>
       <c r="Q397" s="3">
         <v>0.11036467808298769</v>
@@ -23247,8 +23257,8 @@
       <c r="O398" t="s">
         <v>3</v>
       </c>
-      <c r="P398" s="3">
-        <v>9.2668171993181983E-4</v>
+      <c r="P398" s="6">
+        <v>8.0247572623193004E-3</v>
       </c>
       <c r="Q398" s="3">
         <v>0.11436818295624099</v>
@@ -23303,8 +23313,8 @@
       <c r="O399" t="s">
         <v>1</v>
       </c>
-      <c r="P399" s="3">
-        <v>1.0030382645709302E-3</v>
+      <c r="P399" s="6">
+        <v>6.3292526901932988E-3</v>
       </c>
       <c r="Q399" s="3">
         <v>0.16761940997093899</v>
@@ -23359,8 +23369,8 @@
       <c r="O400" t="s">
         <v>3</v>
       </c>
-      <c r="P400" s="3">
-        <v>1.2956988991845702E-3</v>
+      <c r="P400" s="6">
+        <v>6.3185545150189985E-3</v>
       </c>
       <c r="Q400" s="3">
         <v>9.2184602282940592E-2</v>
@@ -23415,8 +23425,8 @@
       <c r="O401" t="s">
         <v>2</v>
       </c>
-      <c r="P401" s="3">
-        <v>3.6139724616077798E-3</v>
+      <c r="P401" s="6">
+        <v>2.1292102697770997E-2</v>
       </c>
       <c r="Q401" s="3">
         <v>0.16073863906785799</v>
@@ -23471,8 +23481,8 @@
       <c r="O402" t="s">
         <v>3</v>
       </c>
-      <c r="P402" s="3">
-        <v>2.8024471248499789E-3</v>
+      <c r="P402" s="6">
+        <v>1.3872324663679998E-2</v>
       </c>
       <c r="Q402" s="3">
         <v>0.131175918038934</v>
@@ -23527,8 +23537,8 @@
       <c r="O403" t="s">
         <v>0</v>
       </c>
-      <c r="P403" s="3">
-        <v>8.4187097963876988E-3</v>
+      <c r="P403" s="6">
+        <v>1.39071876401431E-2</v>
       </c>
       <c r="Q403" s="3">
         <v>8.5305925691499918E-2</v>
@@ -23583,8 +23593,8 @@
       <c r="O404" t="s">
         <v>1</v>
       </c>
-      <c r="P404" s="3">
-        <v>1.8057819688692706E-3</v>
+      <c r="P404" s="6">
+        <v>6.0108133657195209E-3</v>
       </c>
       <c r="Q404" s="3">
         <v>5.7130507717374594E-2</v>
@@ -23639,8 +23649,8 @@
       <c r="O405" t="s">
         <v>0</v>
       </c>
-      <c r="P405" s="3">
-        <v>2.0946668446413302E-3</v>
+      <c r="P405" s="6">
+        <v>1.5361562138423299E-2</v>
       </c>
       <c r="Q405" s="3">
         <v>0.16532283416017898</v>
@@ -23695,8 +23705,8 @@
       <c r="O406" t="s">
         <v>2</v>
       </c>
-      <c r="P406" s="3">
-        <v>2.0932289899064996E-3</v>
+      <c r="P406" s="6">
+        <v>1.7176030494738401E-2</v>
       </c>
       <c r="Q406" s="3">
         <v>0.105127263814211</v>
@@ -23751,8 +23761,8 @@
       <c r="O407" t="s">
         <v>1</v>
       </c>
-      <c r="P407" s="3">
-        <v>3.2732146210036998E-3</v>
+      <c r="P407" s="6">
+        <v>5.3581432439386689E-3</v>
       </c>
       <c r="Q407" s="3">
         <v>7.8270147088914693E-2</v>
@@ -23807,8 +23817,8 @@
       <c r="O408" t="s">
         <v>2</v>
       </c>
-      <c r="P408" s="3">
-        <v>3.3607205550652006E-3</v>
+      <c r="P408" s="6">
+        <v>6.9108638854230905E-3</v>
       </c>
       <c r="Q408" s="3">
         <v>0.10410832380875909</v>
@@ -23863,8 +23873,8 @@
       <c r="O409" t="s">
         <v>0</v>
       </c>
-      <c r="P409" s="3">
-        <v>5.9790895975311105E-3</v>
+      <c r="P409" s="6">
+        <v>1.6216278105275699E-2</v>
       </c>
       <c r="Q409" s="3">
         <v>8.3659278694539999E-2</v>
@@ -23919,8 +23929,8 @@
       <c r="O410" t="s">
         <v>1</v>
       </c>
-      <c r="P410" s="3">
-        <v>1.7178634589072404E-3</v>
+      <c r="P410" s="6">
+        <v>5.947016004938549E-3</v>
       </c>
       <c r="Q410" s="3">
         <v>8.3895211340859394E-2</v>
@@ -23975,8 +23985,8 @@
       <c r="O411" t="s">
         <v>3</v>
       </c>
-      <c r="P411" s="3">
-        <v>1.5546872600680304E-3</v>
+      <c r="P411" s="6">
+        <v>5.4600140429101988E-3</v>
       </c>
       <c r="Q411" s="3">
         <v>0.16320992913097201</v>
@@ -24031,8 +24041,8 @@
       <c r="O412" t="s">
         <v>3</v>
       </c>
-      <c r="P412" s="3">
-        <v>2.4547409557271697E-3</v>
+      <c r="P412" s="6">
+        <v>8.1653197412379017E-3</v>
       </c>
       <c r="Q412" s="3">
         <v>0.13320996449328901</v>
@@ -24087,8 +24097,8 @@
       <c r="O413" t="s">
         <v>2</v>
       </c>
-      <c r="P413" s="3">
-        <v>2.2681465052301003E-3</v>
+      <c r="P413" s="6">
+        <v>8.8195751304739004E-3</v>
       </c>
       <c r="Q413" s="3">
         <v>0.12642030138522398</v>
@@ -24143,8 +24153,8 @@
       <c r="O414" t="s">
         <v>1</v>
       </c>
-      <c r="P414" s="3">
-        <v>1.7158739938167794E-3</v>
+      <c r="P414" s="6">
+        <v>8.0012377002277001E-3</v>
       </c>
       <c r="Q414" s="3">
         <v>7.6274788705631993E-2</v>
@@ -24199,8 +24209,8 @@
       <c r="O415" t="s">
         <v>3</v>
       </c>
-      <c r="P415" s="3">
-        <v>2.4568448716308904E-3</v>
+      <c r="P415" s="6">
+        <v>7.5312891567591005E-3</v>
       </c>
       <c r="Q415" s="3">
         <v>0.188453267328441</v>
@@ -24255,8 +24265,8 @@
       <c r="O416" t="s">
         <v>3</v>
       </c>
-      <c r="P416" s="3">
-        <v>3.5069746081718006E-3</v>
+      <c r="P416" s="6">
+        <v>6.579917331691899E-3</v>
       </c>
       <c r="Q416" s="3">
         <v>9.9542988697066404E-2</v>
@@ -24311,8 +24321,8 @@
       <c r="O417" t="s">
         <v>0</v>
       </c>
-      <c r="P417" s="3">
-        <v>1.9936858327127899E-2</v>
+      <c r="P417" s="6">
+        <v>2.2936844383366402E-2</v>
       </c>
       <c r="Q417" s="3">
         <v>0.15017430530861001</v>
@@ -24367,8 +24377,8 @@
       <c r="O418" t="s">
         <v>2</v>
       </c>
-      <c r="P418" s="3">
-        <v>2.1096331765875194E-3</v>
+      <c r="P418" s="6">
+        <v>6.8622471007983316E-3</v>
       </c>
       <c r="Q418" s="3">
         <v>9.0263861464336306E-2</v>
@@ -24423,8 +24433,8 @@
       <c r="O419" t="s">
         <v>1</v>
       </c>
-      <c r="P419" s="3">
-        <v>9.827121195939998E-4</v>
+      <c r="P419" s="6">
+        <v>4.4879507622681402E-3</v>
       </c>
       <c r="Q419" s="3">
         <v>0.11093252454884399</v>
@@ -24479,8 +24489,8 @@
       <c r="O420" t="s">
         <v>3</v>
       </c>
-      <c r="P420" s="3">
-        <v>9.9977431719366992E-4</v>
+      <c r="P420" s="6">
+        <v>4.7500187356489792E-3</v>
       </c>
       <c r="Q420" s="3">
         <v>0.17904615309089397</v>
@@ -24535,8 +24545,8 @@
       <c r="O421" t="s">
         <v>3</v>
       </c>
-      <c r="P421" s="3">
-        <v>1.0307714958344197E-3</v>
+      <c r="P421" s="6">
+        <v>1.0259488859446702E-2</v>
       </c>
       <c r="Q421" s="3">
         <v>8.9707808569072706E-2</v>
@@ -24591,8 +24601,8 @@
       <c r="O422" t="s">
         <v>2</v>
       </c>
-      <c r="P422" s="3">
-        <v>2.5490089537925104E-3</v>
+      <c r="P422" s="6">
+        <v>1.0568862897343902E-2</v>
       </c>
       <c r="Q422" s="3">
         <v>0.11234238091856251</v>
@@ -24647,8 +24657,8 @@
       <c r="O423" t="s">
         <v>1</v>
       </c>
-      <c r="P423" s="3">
-        <v>1.2352851949799502E-3</v>
+      <c r="P423" s="6">
+        <v>7.3757899226620984E-3</v>
       </c>
       <c r="Q423" s="3">
         <v>0.140380828175694</v>
@@ -24703,8 +24713,8 @@
       <c r="O424" t="s">
         <v>2</v>
       </c>
-      <c r="P424" s="3">
-        <v>1.3932331530668298E-3</v>
+      <c r="P424" s="6">
+        <v>9.8572034621612001E-3</v>
       </c>
       <c r="Q424" s="3">
         <v>0.10933376266621</v>
@@ -24759,8 +24769,8 @@
       <c r="O425" t="s">
         <v>3</v>
       </c>
-      <c r="P425" s="3">
-        <v>9.3043176229911989E-4</v>
+      <c r="P425" s="6">
+        <v>6.468381339800499E-3</v>
       </c>
       <c r="Q425" s="3">
         <v>0.10170218930579661</v>
@@ -24815,8 +24825,8 @@
       <c r="O426" t="s">
         <v>1</v>
       </c>
-      <c r="P426" s="3">
-        <v>4.3434551917015986E-3</v>
+      <c r="P426" s="6">
+        <v>8.2859891117549999E-3</v>
       </c>
       <c r="Q426" s="3">
         <v>0.1093212312553071</v>
@@ -24871,8 +24881,8 @@
       <c r="O427" t="s">
         <v>1</v>
       </c>
-      <c r="P427" s="3">
-        <v>1.3447135504520702E-3</v>
+      <c r="P427" s="6">
+        <v>1.11611645261291E-2</v>
       </c>
       <c r="Q427" s="3">
         <v>0.18377379886806003</v>
@@ -24927,8 +24937,8 @@
       <c r="O428" t="s">
         <v>0</v>
       </c>
-      <c r="P428" s="3">
-        <v>8.381015126360589E-3</v>
+      <c r="P428" s="6">
+        <v>2.7477097697556102E-2</v>
       </c>
       <c r="Q428" s="3">
         <v>8.3829533774405413E-2</v>
@@ -24983,8 +24993,8 @@
       <c r="O429" t="s">
         <v>3</v>
       </c>
-      <c r="P429" s="3">
-        <v>1.1901143220143197E-3</v>
+      <c r="P429" s="6">
+        <v>6.1459379940060985E-3</v>
       </c>
       <c r="Q429" s="3">
         <v>0.13232100103050498</v>
@@ -25039,8 +25049,8 @@
       <c r="O430" t="s">
         <v>2</v>
       </c>
-      <c r="P430" s="3">
-        <v>1.9145613962336999E-3</v>
+      <c r="P430" s="6">
+        <v>1.3782466819975501E-2</v>
       </c>
       <c r="Q430" s="3">
         <v>7.2922932100482105E-2</v>
@@ -25095,8 +25105,8 @@
       <c r="O431" t="s">
         <v>1</v>
       </c>
-      <c r="P431" s="3">
-        <v>2.1347009555938703E-3</v>
+      <c r="P431" s="6">
+        <v>1.1597094067838102E-2</v>
       </c>
       <c r="Q431" s="3">
         <v>0.11411731922998961</v>
@@ -25151,8 +25161,8 @@
       <c r="O432" t="s">
         <v>3</v>
       </c>
-      <c r="P432" s="3">
-        <v>2.7833062631543708E-3</v>
+      <c r="P432" s="6">
+        <v>1.5811147284694002E-2</v>
       </c>
       <c r="Q432" s="3">
         <v>0.13433593651279802</v>
@@ -25207,8 +25217,8 @@
       <c r="O433" t="s">
         <v>2</v>
       </c>
-      <c r="P433" s="3">
-        <v>5.0248918996657899E-3</v>
+      <c r="P433" s="6">
+        <v>2.44235891732387E-2</v>
       </c>
       <c r="Q433" s="3">
         <v>0.15957244765013501</v>
@@ -25263,8 +25273,8 @@
       <c r="O434" t="s">
         <v>2</v>
       </c>
-      <c r="P434" s="3">
-        <v>1.0823823070040804E-3</v>
+      <c r="P434" s="6">
+        <v>1.1652110784780199E-2</v>
       </c>
       <c r="Q434" s="3">
         <v>9.0408492600544496E-2</v>
@@ -25319,8 +25329,8 @@
       <c r="O435" t="s">
         <v>3</v>
       </c>
-      <c r="P435" s="3">
-        <v>1.46116820599219E-3</v>
+      <c r="P435" s="6">
+        <v>7.586879713926499E-3</v>
       </c>
       <c r="Q435" s="3">
         <v>0.111680902075023</v>
@@ -25375,8 +25385,8 @@
       <c r="O436" t="s">
         <v>1</v>
       </c>
-      <c r="P436" s="3">
-        <v>9.6047455372172017E-4</v>
+      <c r="P436" s="6">
+        <v>1.1729773948900402E-2</v>
       </c>
       <c r="Q436" s="3">
         <v>7.8858942259103004E-2</v>
@@ -25431,8 +25441,8 @@
       <c r="O437" t="s">
         <v>0</v>
       </c>
-      <c r="P437" s="3">
-        <v>9.2614616150967985E-3</v>
+      <c r="P437" s="6">
+        <v>1.1145326920086501E-2</v>
       </c>
       <c r="Q437" s="3">
         <v>0.11543889623135301</v>
@@ -25487,8 +25497,8 @@
       <c r="O438" t="s">
         <v>1</v>
       </c>
-      <c r="P438" s="3">
-        <v>1.6899724432732901E-3</v>
+      <c r="P438" s="6">
+        <v>3.9853498601586813E-3</v>
       </c>
       <c r="Q438" s="3">
         <v>8.5534414974972092E-2</v>
@@ -25543,8 +25553,8 @@
       <c r="O439" t="s">
         <v>1</v>
       </c>
-      <c r="P439" s="3">
-        <v>2.7942965389228906E-3</v>
+      <c r="P439" s="6">
+        <v>1.1233371566049699E-2</v>
       </c>
       <c r="Q439" s="3">
         <v>0.17630231380462702</v>
@@ -25599,8 +25609,8 @@
       <c r="O440" t="s">
         <v>1</v>
       </c>
-      <c r="P440" s="3">
-        <v>1.85416335443733E-3</v>
+      <c r="P440" s="6">
+        <v>6.5503013320266992E-3</v>
       </c>
       <c r="Q440" s="3">
         <v>0.1169404019601638</v>
@@ -25655,8 +25665,8 @@
       <c r="O441" t="s">
         <v>0</v>
       </c>
-      <c r="P441" s="3">
-        <v>2.5283863160439099E-3</v>
+      <c r="P441" s="6">
+        <v>1.2186074513010599E-2</v>
       </c>
       <c r="Q441" s="3">
         <v>0.13198717474006111</v>
@@ -25711,8 +25721,8 @@
       <c r="O442" t="s">
         <v>2</v>
       </c>
-      <c r="P442" s="3">
-        <v>1.0455796856376799E-3</v>
+      <c r="P442" s="6">
+        <v>1.0794544068630799E-2</v>
       </c>
       <c r="Q442" s="3">
         <v>0.153290435671806</v>
@@ -25767,7 +25777,7 @@
       <c r="O443" t="s">
         <v>0</v>
       </c>
-      <c r="P443" s="3">
+      <c r="P443" s="6">
         <v>1.3479909452143999E-2</v>
       </c>
       <c r="Q443" s="3">
@@ -25823,7 +25833,7 @@
       <c r="O444" t="s">
         <v>0</v>
       </c>
-      <c r="P444" s="3">
+      <c r="P444" s="6">
         <v>1.3265392248286E-2</v>
       </c>
       <c r="Q444" s="3">
@@ -25879,8 +25889,8 @@
       <c r="O445" t="s">
         <v>1</v>
       </c>
-      <c r="P445" s="3">
-        <v>7.0567616494373025E-3</v>
+      <c r="P445" s="6">
+        <v>1.2605405994690903E-2</v>
       </c>
       <c r="Q445" s="3">
         <v>7.0958011201582405E-2</v>
@@ -25935,8 +25945,8 @@
       <c r="O446" t="s">
         <v>3</v>
       </c>
-      <c r="P446" s="3">
-        <v>1.0145556114480301E-3</v>
+      <c r="P446" s="6">
+        <v>7.1680502805975006E-3</v>
       </c>
       <c r="Q446" s="3">
         <v>9.521382488310251E-2</v>
@@ -25991,8 +26001,8 @@
       <c r="O447" t="s">
         <v>2</v>
       </c>
-      <c r="P447" s="3">
-        <v>2.2229105836686401E-3</v>
+      <c r="P447" s="6">
+        <v>2.57317647337914E-2</v>
       </c>
       <c r="Q447" s="3">
         <v>0.13447265047579998</v>
@@ -26047,8 +26057,8 @@
       <c r="O448" t="s">
         <v>1</v>
       </c>
-      <c r="P448" s="3">
-        <v>1.3374279343452197E-3</v>
+      <c r="P448" s="6">
+        <v>1.5130420564673803E-2</v>
       </c>
       <c r="Q448" s="3">
         <v>0.13070467580109901</v>
@@ -26103,8 +26113,8 @@
       <c r="O449" t="s">
         <v>1</v>
       </c>
-      <c r="P449" s="3">
-        <v>2.5934698642231489E-3</v>
+      <c r="P449" s="6">
+        <v>6.2810996605548799E-3</v>
       </c>
       <c r="Q449" s="3">
         <v>6.6928936401381395E-2</v>
@@ -26159,8 +26169,8 @@
       <c r="O450" t="s">
         <v>0</v>
       </c>
-      <c r="P450" s="3">
-        <v>5.08694722975629E-3</v>
+      <c r="P450" s="6">
+        <v>2.3754076333716498E-2</v>
       </c>
       <c r="Q450" s="3">
         <v>9.7015957464463815E-2</v>
@@ -26215,8 +26225,8 @@
       <c r="O451" t="s">
         <v>3</v>
       </c>
-      <c r="P451" s="3">
-        <v>9.0292902947908E-4</v>
+      <c r="P451" s="6">
+        <v>7.4169368308503007E-3</v>
       </c>
       <c r="Q451" s="3">
         <v>0.10860708879772499</v>
@@ -26271,8 +26281,8 @@
       <c r="O452" t="s">
         <v>1</v>
       </c>
-      <c r="P452" s="3">
-        <v>8.3627464073288008E-4</v>
+      <c r="P452" s="6">
+        <v>1.24170938506722E-2</v>
       </c>
       <c r="Q452" s="3">
         <v>0.13356043654493902</v>
@@ -26327,8 +26337,8 @@
       <c r="O453" t="s">
         <v>0</v>
       </c>
-      <c r="P453" s="3">
-        <v>4.8690236872062E-3</v>
+      <c r="P453" s="6">
+        <v>9.5510660903528177E-3</v>
       </c>
       <c r="Q453" s="3">
         <v>3.1086565926671E-2</v>
@@ -26383,8 +26393,8 @@
       <c r="O454" t="s">
         <v>3</v>
       </c>
-      <c r="P454" s="3">
-        <v>1.6881952469702801E-3</v>
+      <c r="P454" s="6">
+        <v>3.8389124711101803E-3</v>
       </c>
       <c r="Q454" s="3">
         <v>0.16356917284429098</v>
@@ -26439,8 +26449,8 @@
       <c r="O455" t="s">
         <v>0</v>
       </c>
-      <c r="P455" s="3">
-        <v>7.0300781371770305E-3</v>
+      <c r="P455" s="6">
+        <v>1.5159071699599701E-2</v>
       </c>
       <c r="Q455" s="3">
         <v>0.16846431000158202</v>
@@ -26495,8 +26505,8 @@
       <c r="O456" t="s">
         <v>1</v>
       </c>
-      <c r="P456" s="3">
-        <v>1.6493622929374396E-3</v>
+      <c r="P456" s="6">
+        <v>1.3314137293491499E-2</v>
       </c>
       <c r="Q456" s="3">
         <v>0.115089273778721</v>
@@ -26551,8 +26561,8 @@
       <c r="O457" t="s">
         <v>1</v>
       </c>
-      <c r="P457" s="3">
-        <v>3.6325994005892209E-3</v>
+      <c r="P457" s="6">
+        <v>1.9575805927161103E-2</v>
       </c>
       <c r="Q457" s="3">
         <v>0.19140576571226101</v>
@@ -26607,8 +26617,8 @@
       <c r="O458" t="s">
         <v>1</v>
       </c>
-      <c r="P458" s="3">
-        <v>7.808904977082403E-4</v>
+      <c r="P458" s="6">
+        <v>9.4625885249115995E-3</v>
       </c>
       <c r="Q458" s="3">
         <v>0.12471674894913999</v>
@@ -26663,8 +26673,8 @@
       <c r="O459" t="s">
         <v>1</v>
       </c>
-      <c r="P459" s="3">
-        <v>1.1058136019528298E-3</v>
+      <c r="P459" s="6">
+        <v>1.5950306260492597E-2</v>
       </c>
       <c r="Q459" s="3">
         <v>0.14131937106139897</v>
@@ -26719,8 +26729,8 @@
       <c r="O460" t="s">
         <v>1</v>
       </c>
-      <c r="P460" s="3">
-        <v>1.6067489850684095E-3</v>
+      <c r="P460" s="6">
+        <v>1.4277230016887198E-2</v>
       </c>
       <c r="Q460" s="3">
         <v>0.14335594396106902</v>
@@ -26775,8 +26785,8 @@
       <c r="O461" t="s">
         <v>1</v>
       </c>
-      <c r="P461" s="3">
-        <v>6.9035801845984983E-4</v>
+      <c r="P461" s="6">
+        <v>6.2076027679723016E-3</v>
       </c>
       <c r="Q461" s="3">
         <v>8.9041198138146996E-2</v>
@@ -26831,8 +26841,8 @@
       <c r="O462" t="s">
         <v>0</v>
       </c>
-      <c r="P462" s="3">
-        <v>9.5541970513295209E-3</v>
+      <c r="P462" s="6">
+        <v>1.24538443342317E-2</v>
       </c>
       <c r="Q462" s="3">
         <v>9.269453026354231E-2</v>
@@ -26887,8 +26897,8 @@
       <c r="O463" t="s">
         <v>3</v>
       </c>
-      <c r="P463" s="3">
-        <v>4.0517085581086004E-3</v>
+      <c r="P463" s="6">
+        <v>6.056149664800602E-3</v>
       </c>
       <c r="Q463" s="3">
         <v>4.8215946764685297E-2</v>
@@ -26943,8 +26953,8 @@
       <c r="O464" t="s">
         <v>1</v>
       </c>
-      <c r="P464" s="3">
-        <v>1.7895952914841499E-3</v>
+      <c r="P464" s="6">
+        <v>4.7347245490527313E-3</v>
       </c>
       <c r="Q464" s="3">
         <v>4.7718128480482805E-2</v>
@@ -26999,8 +27009,8 @@
       <c r="O465" t="s">
         <v>2</v>
       </c>
-      <c r="P465" s="3">
-        <v>2.916191064286971E-3</v>
+      <c r="P465" s="6">
+        <v>7.0702573284506104E-3</v>
       </c>
       <c r="Q465" s="3">
         <v>8.40394381666556E-2</v>
@@ -27055,8 +27065,8 @@
       <c r="O466" t="s">
         <v>3</v>
       </c>
-      <c r="P466" s="3">
-        <v>1.5414104273077101E-3</v>
+      <c r="P466" s="6">
+        <v>3.024256540811579E-3</v>
       </c>
       <c r="Q466" s="3">
         <v>0.16643271967768702</v>
@@ -27111,8 +27121,8 @@
       <c r="O467" t="s">
         <v>2</v>
       </c>
-      <c r="P467" s="3">
-        <v>1.18450746776943E-3</v>
+      <c r="P467" s="6">
+        <v>9.3478527269327E-3</v>
       </c>
       <c r="Q467" s="3">
         <v>0.14330795221030701</v>
@@ -27167,8 +27177,8 @@
       <c r="O468" t="s">
         <v>2</v>
       </c>
-      <c r="P468" s="3">
-        <v>2.3367196126855595E-3</v>
+      <c r="P468" s="6">
+        <v>1.5664316480979299E-2</v>
       </c>
       <c r="Q468" s="3">
         <v>0.15740140015259302</v>
@@ -27223,8 +27233,8 @@
       <c r="O469" t="s">
         <v>2</v>
       </c>
-      <c r="P469" s="3">
-        <v>2.8575153992278501E-3</v>
+      <c r="P469" s="6">
+        <v>1.2640790839213899E-2</v>
       </c>
       <c r="Q469" s="3">
         <v>9.0790408430620889E-2</v>
@@ -27279,8 +27289,8 @@
       <c r="O470" t="s">
         <v>2</v>
       </c>
-      <c r="P470" s="3">
-        <v>2.5450409157201708E-3</v>
+      <c r="P470" s="6">
+        <v>8.2694402080959982E-3</v>
       </c>
       <c r="Q470" s="3">
         <v>7.3504504049196104E-2</v>
@@ -27335,8 +27345,8 @@
       <c r="O471" t="s">
         <v>3</v>
       </c>
-      <c r="P471" s="3">
-        <v>1.6793454451544702E-3</v>
+      <c r="P471" s="6">
+        <v>4.5794965990353393E-3</v>
       </c>
       <c r="Q471" s="3">
         <v>0.21643977612257001</v>
@@ -27391,8 +27401,8 @@
       <c r="O472" t="s">
         <v>3</v>
       </c>
-      <c r="P472" s="3">
-        <v>1.1190395860012298E-3</v>
+      <c r="P472" s="6">
+        <v>7.1375883417204022E-3</v>
       </c>
       <c r="Q472" s="3">
         <v>0.11981794401072</v>
@@ -27447,8 +27457,8 @@
       <c r="O473" t="s">
         <v>1</v>
       </c>
-      <c r="P473" s="3">
-        <v>1.1788084138970598E-3</v>
+      <c r="P473" s="6">
+        <v>1.1758820735849398E-2</v>
       </c>
       <c r="Q473" s="3">
         <v>0.134003885556012</v>
@@ -27503,7 +27513,7 @@
       <c r="O474" t="s">
         <v>0</v>
       </c>
-      <c r="P474" s="3">
+      <c r="P474" s="6">
         <v>1.34718296176288E-2</v>
       </c>
       <c r="Q474" s="3">
@@ -27559,8 +27569,8 @@
       <c r="O475" t="s">
         <v>2</v>
       </c>
-      <c r="P475" s="3">
-        <v>2.4602038029115699E-3</v>
+      <c r="P475" s="6">
+        <v>1.0042984184110501E-2</v>
       </c>
       <c r="Q475" s="3">
         <v>0.12652227212674841</v>
@@ -27615,8 +27625,8 @@
       <c r="O476" t="s">
         <v>1</v>
       </c>
-      <c r="P476" s="3">
-        <v>1.7986220354941898E-3</v>
+      <c r="P476" s="6">
+        <v>1.5670428867451899E-2</v>
       </c>
       <c r="Q476" s="3">
         <v>0.12853891635313602</v>
@@ -27671,8 +27681,8 @@
       <c r="O477" t="s">
         <v>1</v>
       </c>
-      <c r="P477" s="3">
-        <v>1.5718656442231796E-3</v>
+      <c r="P477" s="6">
+        <v>1.8913792562671002E-2</v>
       </c>
       <c r="Q477" s="3">
         <v>0.134985642507673</v>
@@ -27727,8 +27737,8 @@
       <c r="O478" t="s">
         <v>0</v>
       </c>
-      <c r="P478" s="3">
-        <v>8.3161655056755088E-3</v>
+      <c r="P478" s="6">
+        <v>3.4850376367103308E-2</v>
       </c>
       <c r="Q478" s="3">
         <v>9.8550272174178999E-2</v>
@@ -27783,8 +27793,8 @@
       <c r="O479" t="s">
         <v>0</v>
       </c>
-      <c r="P479" s="3">
-        <v>3.0975989411672301E-3</v>
+      <c r="P479" s="6">
+        <v>1.3364663784159399E-2</v>
       </c>
       <c r="Q479" s="3">
         <v>5.4603572934865598E-2</v>
@@ -27839,8 +27849,8 @@
       <c r="O480" t="s">
         <v>2</v>
       </c>
-      <c r="P480" s="3">
-        <v>9.4685790372749969E-4</v>
+      <c r="P480" s="6">
+        <v>1.58485829597339E-2</v>
       </c>
       <c r="Q480" s="3">
         <v>0.13639958109706596</v>
@@ -27895,8 +27905,8 @@
       <c r="O481" t="s">
         <v>0</v>
       </c>
-      <c r="P481" s="3">
-        <v>1.2547891179565399E-2</v>
+      <c r="P481" s="6">
+        <v>1.6391143552027601E-2</v>
       </c>
       <c r="Q481" s="3">
         <v>0.167015770450234</v>
@@ -27951,8 +27961,8 @@
       <c r="O482" t="s">
         <v>2</v>
       </c>
-      <c r="P482" s="3">
-        <v>2.6375023007858597E-3</v>
+      <c r="P482" s="6">
+        <v>6.1651403302675403E-3</v>
       </c>
       <c r="Q482" s="3">
         <v>0.11040864139795241</v>
@@ -28007,8 +28017,8 @@
       <c r="O483" t="s">
         <v>1</v>
       </c>
-      <c r="P483" s="3">
-        <v>1.1735845882867597E-3</v>
+      <c r="P483" s="6">
+        <v>4.6894066254026187E-3</v>
       </c>
       <c r="Q483" s="3">
         <v>0.12664724839851302</v>
@@ -28063,8 +28073,8 @@
       <c r="O484" t="s">
         <v>0</v>
       </c>
-      <c r="P484" s="3">
-        <v>6.7362039444560408E-3</v>
+      <c r="P484" s="6">
+        <v>1.4363395079271901E-2</v>
       </c>
       <c r="Q484" s="3">
         <v>9.5069443108513396E-2</v>
@@ -28119,8 +28129,8 @@
       <c r="O485" t="s">
         <v>2</v>
       </c>
-      <c r="P485" s="3">
-        <v>2.6512662007007696E-3</v>
+      <c r="P485" s="6">
+        <v>6.79437301005229E-3</v>
       </c>
       <c r="Q485" s="3">
         <v>0.13713670056313199</v>
@@ -28175,8 +28185,8 @@
       <c r="O486" t="s">
         <v>0</v>
       </c>
-      <c r="P486" s="3">
-        <v>6.3136047101579398E-3</v>
+      <c r="P486" s="6">
+        <v>2.28197326359805E-2</v>
       </c>
       <c r="Q486" s="3">
         <v>0.13466760143637602</v>
@@ -28231,8 +28241,8 @@
       <c r="O487" t="s">
         <v>0</v>
       </c>
-      <c r="P487" s="3">
-        <v>2.1358806907301195E-3</v>
+      <c r="P487" s="6">
+        <v>2.5942551903426602E-2</v>
       </c>
       <c r="Q487" s="3">
         <v>0.16206469153985401</v>
@@ -28287,8 +28297,8 @@
       <c r="O488" t="s">
         <v>2</v>
       </c>
-      <c r="P488" s="3">
-        <v>1.0308308733328903E-3</v>
+      <c r="P488" s="6">
+        <v>1.28261442296207E-2</v>
       </c>
       <c r="Q488" s="3">
         <v>0.17743262788280798</v>
@@ -28343,8 +28353,8 @@
       <c r="O489" t="s">
         <v>1</v>
       </c>
-      <c r="P489" s="3">
-        <v>7.1072746686695002E-4</v>
+      <c r="P489" s="6">
+        <v>1.1869101319461998E-2</v>
       </c>
       <c r="Q489" s="3">
         <v>0.18041574861854301</v>
@@ -28399,8 +28409,8 @@
       <c r="O490" t="s">
         <v>2</v>
       </c>
-      <c r="P490" s="3">
-        <v>2.2116728068795099E-3</v>
+      <c r="P490" s="6">
+        <v>8.2359431253280994E-3</v>
       </c>
       <c r="Q490" s="3">
         <v>0.181216064840555</v>
@@ -28455,8 +28465,8 @@
       <c r="O491" t="s">
         <v>2</v>
       </c>
-      <c r="P491" s="3">
-        <v>1.4560661903715395E-3</v>
+      <c r="P491" s="6">
+        <v>1.22082071611658E-2</v>
       </c>
       <c r="Q491" s="3">
         <v>0.15819507976993902</v>
@@ -28511,8 +28521,8 @@
       <c r="O492" t="s">
         <v>0</v>
       </c>
-      <c r="P492" s="3">
-        <v>5.9843939579877605E-3</v>
+      <c r="P492" s="6">
+        <v>1.9949079083744402E-2</v>
       </c>
       <c r="Q492" s="3">
         <v>8.980305935256129E-2</v>
@@ -28567,8 +28577,8 @@
       <c r="O493" t="s">
         <v>0</v>
       </c>
-      <c r="P493" s="3">
-        <v>3.69019810568716E-3</v>
+      <c r="P493" s="6">
+        <v>1.4803495112573799E-2</v>
       </c>
       <c r="Q493" s="3">
         <v>0.14935914473608103</v>
@@ -28623,8 +28633,8 @@
       <c r="O494" t="s">
         <v>2</v>
       </c>
-      <c r="P494" s="3">
-        <v>3.4671276516746695E-3</v>
+      <c r="P494" s="6">
+        <v>1.4303785166703199E-2</v>
       </c>
       <c r="Q494" s="3">
         <v>0.15688145579770299</v>
@@ -28679,8 +28689,8 @@
       <c r="O495" t="s">
         <v>0</v>
       </c>
-      <c r="P495" s="3">
-        <v>6.0872476606163711E-3</v>
+      <c r="P495" s="6">
+        <v>1.6119016334414503E-2</v>
       </c>
       <c r="Q495" s="3">
         <v>0.1145005736034356</v>
@@ -28735,8 +28745,8 @@
       <c r="O496" t="s">
         <v>2</v>
       </c>
-      <c r="P496" s="3">
-        <v>3.9819948142394302E-3</v>
+      <c r="P496" s="6">
+        <v>1.0239945608191199E-2</v>
       </c>
       <c r="Q496" s="3">
         <v>0.1247586172539733</v>
@@ -28791,8 +28801,8 @@
       <c r="O497" t="s">
         <v>2</v>
       </c>
-      <c r="P497" s="3">
-        <v>7.1913365973159983E-3</v>
+      <c r="P497" s="6">
+        <v>1.4764467487111597E-2</v>
       </c>
       <c r="Q497" s="3">
         <v>0.12929065921343791</v>
@@ -28847,8 +28857,8 @@
       <c r="O498" t="s">
         <v>1</v>
       </c>
-      <c r="P498" s="3">
-        <v>3.7849078653379893E-3</v>
+      <c r="P498" s="6">
+        <v>5.624105426249951E-3</v>
       </c>
       <c r="Q498" s="3">
         <v>0.11923463549464851</v>
@@ -28903,8 +28913,8 @@
       <c r="O499" t="s">
         <v>3</v>
       </c>
-      <c r="P499" s="3">
-        <v>3.2205369789152991E-3</v>
+      <c r="P499" s="6">
+        <v>5.7942408020608006E-3</v>
       </c>
       <c r="Q499" s="3">
         <v>0.15416322229430096</v>
@@ -28959,8 +28969,8 @@
       <c r="O500" t="s">
         <v>3</v>
       </c>
-      <c r="P500" s="3">
-        <v>3.8944265106692997E-3</v>
+      <c r="P500" s="6">
+        <v>3.1603659153915699E-3</v>
       </c>
       <c r="Q500" s="3">
         <v>0.10101862251758499</v>
@@ -29015,8 +29025,8 @@
       <c r="O501" t="s">
         <v>2</v>
       </c>
-      <c r="P501" s="3">
-        <v>7.5630851206369004E-3</v>
+      <c r="P501" s="6">
+        <v>8.232097898144301E-3</v>
       </c>
       <c r="Q501" s="3">
         <v>0.15382812917232497</v>

--- a/2.5D_SJR.xlsx
+++ b/2.5D_SJR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uottawa-my.sharepoint.com/personal/mrafiee_uottawa_ca/Documents/1-Moh/Teaching &amp; Workshops/Electronic pakcaging and manufacturing/Projects/2025 Projects/teams/2.5D/updated data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bitopibhowmik/Documents/School/Packaging/2.5D packaging project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4D842A09-181F-4DB1-925E-D485D5D5887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A472B82-0BF6-48E7-A5F9-36232BC722ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090DB5E-7D21-C548-822C-4E7A9538988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.5D SJR" sheetId="1" r:id="rId1"/>
@@ -960,26 +960,26 @@
   <dimension ref="A1:R501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="6"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0.17284416407346698</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0.41037927567958798</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.14565041288733399</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0.25472282618284198</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0.24242117628455095</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0.21248934790492097</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0.175494894385338</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0.16419858112931202</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>0.25262084230780602</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0.17391014099121102</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0.27097857743501697</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>0.32485047727823296</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0.26796317845582895</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0.30290966480970399</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0.167881969362497</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0.22923449426889397</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0.13401654362678603</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0.102310415357351</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0.22219418361783005</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.1</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0.28975675255060196</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0.17730934172868701</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0.30823804438114205</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0.18499232828617099</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0.36743015795946093</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0.41003361344337502</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0.24636268615722698</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0.45889113843440088</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0.30763432756066295</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0.29620621353387794</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.125</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>0.107444327324629</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.125</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0.20407107099890698</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.125</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0.102894973009825</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.125</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0.19691491127014099</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.125</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0.21997928619384793</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.125</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>6.8632462993264004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.125</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>9.365853667259201E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.125</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0.162870123982429</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.125</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>0.261193968355656</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.125</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0.30855957418680202</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.125</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>0.27558632567524899</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.125</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0.16037350520491597</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.125</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0.30078847706317902</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.125</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>0.16633930802345298</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.125</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0.34893283993005797</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.125</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0.23177811503410306</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.125</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0.137181762605906</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.125</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0.43307889252901099</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.125</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0.15172291547060096</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.125</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0.42531359940767305</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.125</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0.17713534832000702</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.125</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>0.29833411797881204</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.125</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>0.25707878544926599</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.125</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0.30322887003421795</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.125</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0.28771449625492101</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.125</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>0.19845638796687098</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.125</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0.21883744373917596</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.125</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0.19727245718240699</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.125</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0.31458342820405999</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.125</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0.38799730688333506</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.15</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.14561840333044501</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.15</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0.11631086654961098</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.15</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>0.189646296203136</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.15</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0.14404574222862701</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.15</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0.15529560297727601</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.15</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0.12573605775833097</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.15</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0.173517797142268</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.15</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0.17593139410018899</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.15</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>0.22761952131986601</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.15</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0.11414211429655502</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.15</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0.12546524778008503</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.15</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0.12029865756630898</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.15</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0.160273127257824</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.15</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0.12853709980845501</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.15</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0.17089218087494398</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.15</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0.17669987305998802</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.15</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>0.19209661334753003</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.15</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>0.29089732468128193</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.15</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0.21015029400587004</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.15</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0.10629348363727398</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.15</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0.11651160381734399</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.15</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0.22644184902310399</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.15</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0.17301400192081898</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.15</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0.19296985864639302</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.15</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0.30728471651673295</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.15</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0.23831331729888905</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.15</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0.14880224317312302</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.15</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>0.18420647829771103</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.15</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0.22256411239504897</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.15</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0.33136312663555106</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.15</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0.21730893477797497</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.1</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>0.12371882982552099</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.1</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0.214428935199976</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.1</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>8.1891583278775007E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.1</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.177942214533687</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.1</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0.17083480954170199</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.1</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>0.21064267307519899</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.1</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>9.1588368639349993E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.1</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0.17588405311107702</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.1</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0.167477724142372</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.1</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>0.19086193665862097</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.1</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0.13492492958903402</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.1</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0.31953654438257301</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.1</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>0.28603208623826498</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.1</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0.10693771578371497</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.1</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>0.19985087215900499</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.1</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0.10066820308566099</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.1</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0.202303066849709</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.1</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>0.19298673979938</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.1</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>0.14579105097800499</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.1</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0.39580013602972003</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.1</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>0.27280517295002898</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.1</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>0.215017080307007</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.1</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>0.19851690717041498</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.1</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>0.27904929965734498</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.125</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>0.10557881183922299</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.125</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>0.148304272443056</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.125</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>3.6654960364102984E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.125</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>0.11172521114349399</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.125</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>0.22592714056372704</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.125</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>0.17978931590914701</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.125</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>8.0086238682269981E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.125</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>0.12793764844536798</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.125</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>8.2609659060836005E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.125</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>0.15542132034897801</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.125</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>6.7418577149510023E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.125</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>8.9651530608535007E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.125</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0.15101020783185901</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.125</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0.18035244196653399</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.125</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>5.8134140446782001E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.125</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>5.9240903705357978E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.125</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>0.13730807229876502</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.125</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>0.18489818274974801</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.125</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0.23065461218357103</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.125</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0.252901371568441</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.125</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0.30422281473875096</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.125</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0.31591645628213805</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.125</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0.20797186344861901</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.125</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.148801058530807</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.125</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0.24281243607401798</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.125</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>0.12012527510523799</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.125</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>0.24314182251691802</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.125</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>0.15436450764536899</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.125</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0.293022401630878</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.15</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0.14822572655975796</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.15</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>7.1120843291283015E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.15</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>0.13067614287137999</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.15</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>0.11819737404584799</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.15</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>8.428545482456698E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.15</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>5.967484414577498E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.15</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>0.11229801923036598</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.15</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0.123841242864728</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.15</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>0.11519354023039299</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.15</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0.13103092834353497</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.15</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0.17447423562407499</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.15</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>0.14157974720001201</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.15</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>0.17440164834261002</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.15</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0.10585286095738397</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.15</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>0.13770326599478702</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.15</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>8.2060098648070984E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.15</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>0.115481382235885</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0.15</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>0.20395894162356801</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.15</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>0.19685909897089002</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.15</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>0.18017864599823902</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.15</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>0.16230277344584398</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.1</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>0.17273961007595101</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.1</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>6.5248414874076413E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.1</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>0.17286330834031099</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.1</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>0.13920180127024601</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.1</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>0.12295353412628199</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.1</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>0.23531171306967702</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.1</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>9.0884365141391005E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.1</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0.17076664417982099</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.1</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>9.0564226731657982E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.1</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>0.13835146650672003</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.1</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>0.15883543342351902</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.1</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>0.22648104652762402</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.1</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>0.11009453423321298</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.1</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>8.446635864675002E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.1</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>8.8394356891512982E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.1</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>9.5082052052021013E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.1</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>0.15652063116431203</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.1</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>0.11685771681368398</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.1</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>8.2436470314859983E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.1</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>2.0628796890377998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.1</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0.13116575591266202</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.1</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>0.14387921616435098</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.1</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>0.17426973767578599</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.1</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>0.29879607260227203</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.1</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>0.15410694852471399</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.1</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>0.163943536579609</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.1</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0.23490399867296297</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.1</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>0.18339250236749702</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.1</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>0.16628818586468702</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.1</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0.16109608672559297</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.125</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>5.357953347265669E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.125</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>7.4168726801872017E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.125</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>4.6755395829677984E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.125</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>0.12252924591302899</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.125</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>9.3874331563711E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.125</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>2.1971045061945998E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.125</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>9.9950939416884987E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.125</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0.15408306568861002</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.125</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>8.6817689239978998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.125</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>6.3906781375407992E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.125</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>9.5800932496786007E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.125</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>0.11839922145008999</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.125</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>0.12723705545067801</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.125</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>0.16437506675720198</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.125</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>0.10025022178888301</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.125</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>5.6233212351798997E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.125</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>0.113019429147244</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.125</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>7.9822154715657012E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.125</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>0.10057445988058999</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.125</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>7.3771568015218003E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.125</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>0.11370056495070502</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.125</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>0.16750554740428902</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.125</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>7.0676051080226981E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.125</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>0.11827834695577602</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.15</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>0.117045313119888</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.15</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>9.6795156598090987E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.15</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>0.12768511101603497</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.15</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>8.1910697743296013E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.15</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>8.6838250979780998E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.15</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>0.12806220911443197</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.15</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>0.13275782018899898</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.15</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>8.4711998701095997E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.15</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>0.10688750445842701</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.15</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>8.3523011766374E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.15</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>0.11371832899749301</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.15</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>0.11562998965382598</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.15</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>0.122332714498043</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.15</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>4.6378622762859006E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.15</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>9.9378835409879018E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.15</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>0.12713721022009897</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.15</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>6.3956270925700998E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0.15</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>0.11811962537467499</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.15</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>0.13815775513649001</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.15</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>0.16970818862318998</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.15</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>0.162643617019058</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.15</v>
       </c>
@@ -14475,7 +14475,7 @@
         <v>0.137841707095504</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.15</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>0.13747190125286501</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.15</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0.130573935806751</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.15</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>0.10759744420647599</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.15</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>7.8303702175616996E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0.15</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>0.17489971593022396</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.15</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>6.4439747482539E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.15</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>6.5845008939504984E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.15</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>8.0279171466827004E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.15</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>0.14909452944993901</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.15</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>0.18706204369664201</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.1</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>0.33983554691076295</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.1</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>0.35590133443474803</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0.1</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0.17437163926661001</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.1</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>0.26459755003452307</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.1</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>0.247421715408564</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.1</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>0.21091909334063499</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.1</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>0.274281766265631</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.1</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>0.22077928110957201</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.1</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>0.21260104328393897</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>0.1</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>0.22045796364545797</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.1</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>0.39881151169538498</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.1</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>0.45119329914450595</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.1</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>0.433672145009041</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.1</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>0.21481527015566798</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.1</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>0.18016714230179801</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>0.1</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>0.35898626968264608</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.1</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>0.24396889284253201</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.1</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>0.26926720514893498</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.1</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>0.26984785869717604</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.1</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>0.30912176705896804</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>0.1</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>0.32710388675332097</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.1</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>0.315312869846821</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.1</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>0.349501773715019</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.1</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>0.25957512296736296</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>0.1</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>0.30230158567428606</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.1</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>0.40789851546287498</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.1</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>0.30159273371100404</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.125</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>0.12157356366515198</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.125</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>0.17419705539941699</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.125</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>0.24489748105406695</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.125</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>0.18830632045865098</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.125</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>0.18117391318082804</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0.125</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>0.30990371853113202</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>0.125</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>0.23236131295561802</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>0.125</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>0.14414316788315801</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>0.125</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>0.19923343136906702</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>0.125</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>0.20107545331120502</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>0.125</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>0.19658212363719901</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>0.125</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>0.19763514026999499</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0.125</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>0.21737099811434799</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>0.125</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>0.25325651839375496</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>0.125</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>0.21732004731893501</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>0.125</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>0.13767278194427501</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>0.125</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>0.22054074332118101</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>0.125</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>0.26175581663847003</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>0.125</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>0.22435190528631205</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>0.125</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>0.32243271172046695</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>0.125</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>0.43867173790931702</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>0.125</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>0.31244684755802099</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>0.125</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>0.33268113061785698</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>0.125</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>0.18208361789584199</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>0.125</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>0.13569121435284601</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>0.125</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>0.24059963971376402</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>0.125</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>0.16196729242801602</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>0.15</v>
       </c>
@@ -18115,7 +18115,7 @@
         <v>0.20753522589802698</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>0.15</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>0.21973817609250501</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>0.15</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>0.174034543335438</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>0.15</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>0.172425117343664</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>0.15</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>0.13728637248277598</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>0.15</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>0.106672422960401</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>0.15</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>0.21919721364974898</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>0.15</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>0.19526398554444302</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>0.15</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>0.15086148865520901</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>0.15</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>0.19462557137012398</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>0.15</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>0.22166892513632802</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>0.15</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>0.135985877364874</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>0.15</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>0.30072335898876201</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.15</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>0.21999141946434997</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>0.15</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>0.21606165356933998</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>0.15</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>0.21585686132311802</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>0.15</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>0.28427851945161797</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>0.15</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>0.35351402312517194</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>0.15</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>0.21999060176312901</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>0.15</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>0.23369416221976302</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>0.15</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>0.19328736513853101</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>0.15</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>0.31079918146133501</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>0.1</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>0.17189680784940697</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>0.1</v>
       </c>
@@ -19403,7 +19403,7 @@
         <v>0.16599413752555803</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>0.1</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>0.25141740590334</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>0.1</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>0.15259044617414502</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>0.1</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>4.1864646598695987E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>0.1</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>8.6655568331479998E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>0.1</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>8.0462470650673024E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>0.1</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>0.13741951435804303</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>0.1</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>9.0299349278210983E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>0.1</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>0.16762144118547503</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>0.1</v>
       </c>
@@ -19907,7 +19907,7 @@
         <v>0.104665473103524</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>0.1</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0.24469625949859602</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>0.1</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>0.120549065992236</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>0.1</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>0.24584592133760397</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>0.1</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>0.11738357692956899</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>0.1</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>0.21613069251179703</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>0.1</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>0.13068425282835899</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>0.1</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>0.18547218665480703</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>0.1</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>0.22641906887292895</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>0.1</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>0.30465168505907098</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>0.1</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>0.20994495600461899</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>0.1</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>0.12742048129439304</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.1</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>0.22271748259663604</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>0.1</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>0.215851224958897</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>0.1</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>0.17035184428095801</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>0.1</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>0.24300203472375803</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>0.1</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>0.29832784086465802</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>0.1</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>0.257011868059635</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>0.1</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>0.10640250518918001</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.1</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>0.179975301027298</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.1</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>0.17882751300930899</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>0.125</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>0.12596157472580702</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.125</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>0.118227578699589</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>0.125</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>0.10982596315443499</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.125</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>0.12164476141333602</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.125</v>
       </c>
@@ -21307,7 +21307,7 @@
         <v>0.18586244806647301</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>0.125</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>6.9307165220379982E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0.125</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.12816958874463999</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0.125</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>0.10020376369357098</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>0.125</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>0.169309206306934</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>0.125</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>0.16305827349424401</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>0.125</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>0.19149074330925897</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>0.125</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>0.10946619138121602</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0.125</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>0.10885421745479099</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0.125</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>0.13384877517819402</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0.125</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>0.124156074598432</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0.125</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>0.16292629763484098</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>0.125</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>0.15137871727347399</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0.125</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>0.20358521118760098</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0.125</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>0.19187282212078505</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0.125</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.27136440575122905</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0.125</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>0.105369132012128</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0.125</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>0.18896616995334703</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0.125</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>0.12353379931300904</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0.125</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>0.16183977760374599</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>0.125</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>0.13140978384763002</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0.125</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>0.14021547511219901</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>0.125</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>0.12481072917580599</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0.15</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>0.13945173285901602</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0.15</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>0.16601848416030399</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0.15</v>
       </c>
@@ -22707,7 +22707,7 @@
         <v>0.14981815591454498</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0.15</v>
       </c>
@@ -22763,7 +22763,7 @@
         <v>0.161008261144161</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0.15</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>9.4384042546152985E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0.15</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>0.129856096580624</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0.15</v>
       </c>
@@ -22931,7 +22931,7 @@
         <v>0.12309910170733901</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0.15</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>0.12923058122396502</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0.15</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>8.4382064640522003E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0.15</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>0.13555874302983301</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0.15</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>7.9262595623730989E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>0.15</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>0.151912566274405</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0.15</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>0.10458088479936098</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0.15</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>0.14760785549879096</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0.15</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>0.14256709069013598</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0.15</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>0.16055276989936801</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0.15</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>0.18780883401632298</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0.15</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>0.10925846919417401</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>0.15</v>
       </c>
@@ -23603,7 +23603,7 @@
         <v>0.15041059069335497</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>0.15</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>0.12820976041257401</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0.15</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>0.12893175333738299</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0.15</v>
       </c>
@@ -23771,7 +23771,7 @@
         <v>0.14736751466989501</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0.15</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>0.11030668392777501</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0.15</v>
       </c>
@@ -23883,7 +23883,7 @@
         <v>6.5237445756792994E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0.15</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>8.2679916173219986E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0.15</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>0.23145180568099</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0.15</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>0.24779986962676098</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0.15</v>
       </c>
@@ -24107,7 +24107,7 @@
         <v>0.16497884131968002</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0.15</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>0.29549950361251803</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0.15</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>0.23032582178711902</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0.15</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>0.27548686787486093</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0.15</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>0.18681672960519802</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.15</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>0.14939334616065103</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0.15</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>0.13061434030532804</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0.15</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>0.183717021718622</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0.1</v>
       </c>
@@ -24555,7 +24555,7 @@
         <v>0.20171989314258101</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0.1</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>0.16486988216638498</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0.1</v>
       </c>
@@ -24667,7 +24667,7 @@
         <v>0.13609494641423298</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0.1</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>0.14541291818022703</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0.1</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>0.170383185148239</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>0.1</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>0.15595340169966199</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0.1</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>6.2472150661050996E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0.1</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>0.20603441633284098</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0.1</v>
       </c>
@@ -25003,7 +25003,7 @@
         <v>0.20240758359432204</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0.1</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>0.287231735885143</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0.1</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>0.18183767795562802</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>0.1</v>
       </c>
@@ -25171,7 +25171,7 @@
         <v>0.15324145928025201</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>0.1</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>0.17916448041796604</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0.1</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>0.175543993711471</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0.1</v>
       </c>
@@ -25339,7 +25339,7 @@
         <v>0.17076698131859303</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0.1</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>0.21415251865983004</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0.1</v>
       </c>
@@ -25451,7 +25451,7 @@
         <v>0.19550077244639402</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0.1</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>0.27051336318254493</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0.1</v>
       </c>
@@ -25563,7 +25563,7 @@
         <v>0.36017721146345094</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0.1</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>0.11745926365256298</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0.1</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>0.20821196213364601</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0.1</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>0.27070726081729002</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0.1</v>
       </c>
@@ -25787,7 +25787,7 @@
         <v>8.7890170514584004E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0.1</v>
       </c>
@@ -25843,7 +25843,7 @@
         <v>0.12757978774607198</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0.1</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>0.16397621296346199</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0.125</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>9.3783810734749007E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0.125</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>8.8354188948869011E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>0.125</v>
       </c>
@@ -26067,7 +26067,7 @@
         <v>9.2246655374765979E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>0.125</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>9.4737445935606013E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>0.125</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>5.9225011616944989E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>0.125</v>
       </c>
@@ -26235,7 +26235,7 @@
         <v>5.7457618415354988E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0.125</v>
       </c>
@@ -26291,7 +26291,7 @@
         <v>8.3061568439006028E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>0.125</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>8.1010373309255007E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>0.125</v>
       </c>
@@ -26403,7 +26403,7 @@
         <v>5.2589870989322593E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>0.125</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>3.8251434452831398E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>0.125</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>0.24199572578072498</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>0.125</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>0.15500630997121301</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0.125</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>0.109643194824457</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>0.125</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>8.1915102899074027E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>0.125</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>0.14525107108056501</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>0.125</v>
       </c>
@@ -26795,7 +26795,7 @@
         <v>0.17898363247513804</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>0.125</v>
       </c>
@@ -26851,7 +26851,7 @@
         <v>8.3845218643545993E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>0.125</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>9.4876248389481971E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>0.125</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>9.7306676208973014E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>0.125</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>6.035999767482271E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>0.125</v>
       </c>
@@ -27075,7 +27075,7 @@
         <v>0.19760164991021098</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>0.125</v>
       </c>
@@ -27131,7 +27131,7 @@
         <v>0.13765676692128198</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>0.125</v>
       </c>
@@ -27187,7 +27187,7 @@
         <v>0.19060817733407098</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>0.125</v>
       </c>
@@ -27243,7 +27243,7 @@
         <v>0.18250027298927302</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>0.125</v>
       </c>
@@ -27299,7 +27299,7 @@
         <v>0.12880210578441603</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>0.125</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>0.13066710531711601</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>0.125</v>
       </c>
@@ -27411,7 +27411,7 @@
         <v>0.144963458180428</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>0.125</v>
       </c>
@@ -27467,7 +27467,7 @@
         <v>0.10406978800892902</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>0.125</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>0.13886742107570202</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>0.125</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>9.2298079282045975E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>0.15</v>
       </c>
@@ -27635,7 +27635,7 @@
         <v>9.2538464814425014E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>0.15</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>9.7040032967924988E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>0.15</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>8.1328867003321981E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>0.15</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>0.16622209548950195</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>0.15</v>
       </c>
@@ -27859,7 +27859,7 @@
         <v>0.14545222371816599</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>0.15</v>
       </c>
@@ -27915,7 +27915,7 @@
         <v>0.13104819506406798</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0.15</v>
       </c>
@@ -27971,7 +27971,7 @@
         <v>9.7230644896627E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>0.15</v>
       </c>
@@ -28027,7 +28027,7 @@
         <v>0.16572940535843403</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>0.15</v>
       </c>
@@ -28083,7 +28083,7 @@
         <v>8.8292393833398986E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>0.15</v>
       </c>
@@ -28139,7 +28139,7 @@
         <v>0.13394269533455302</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>0.15</v>
       </c>
@@ -28195,7 +28195,7 @@
         <v>0.105854742228985</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>0.15</v>
       </c>
@@ -28251,7 +28251,7 @@
         <v>0.16814514249563198</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>0.15</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>0.12320244498550897</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>0.15</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>0.15732685849070599</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>0.15</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>0.14157656021416201</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>0.15</v>
       </c>
@@ -28475,7 +28475,7 @@
         <v>0.15490952134132396</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>0.15</v>
       </c>
@@ -28531,7 +28531,7 @@
         <v>0.24062316492199898</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>0.15</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>0.25476448982953998</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>0.15</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>0.14850993454456399</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>0.15</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0.25290133804082904</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>0.15</v>
       </c>
@@ -28755,7 +28755,7 @@
         <v>0.13449042290449198</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>0.15</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>0.16167977079749096</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>0.15</v>
       </c>
@@ -28867,7 +28867,7 @@
         <v>0.12931190058588998</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>0.15</v>
       </c>
@@ -28923,7 +28923,7 @@
         <v>0.155258618295193</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>0.15</v>
       </c>
@@ -28979,7 +28979,7 @@
         <v>0.15615943819284403</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>0.15</v>
       </c>
